--- a/yar_dob.xlsx
+++ b/yar_dob.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E644"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,6 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,12 +484,6 @@
       </c>
       <c r="C2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>624692.52</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6430122.26</v>
       </c>
     </row>
     <row r="3">
@@ -512,12 +496,6 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>608241.59</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6435829.54</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -533,12 +511,6 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>589335.77</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6436581.48</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -553,12 +525,6 @@
       </c>
       <c r="C5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>615272.52</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6451415.53</v>
       </c>
     </row>
     <row r="6">
@@ -571,12 +537,6 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>627437.99</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6430998.79</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -588,12 +548,6 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>631668.21</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6427533.04</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -605,12 +559,6 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>626822.45</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6429677.92</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -622,12 +570,6 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
-        <v>626618.87</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6430093.43</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -639,12 +581,6 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>625943.84</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6430578.99</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -656,12 +592,6 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>626963.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6431054.5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -676,12 +606,6 @@
       </c>
       <c r="C12" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>616928.21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6430450.45</v>
       </c>
     </row>
     <row r="13">
@@ -694,12 +618,6 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>609291.53</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6433179.62</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -711,12 +629,6 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>617900.55</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6432211.52</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -728,12 +640,6 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
-        <v>604798.3199999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6448121.51</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -745,12 +651,6 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>611575.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6432462.82</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -762,12 +662,6 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>612531.76</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6436362.62</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -779,12 +673,6 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>606402.01</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6443324.56</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -796,12 +684,6 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>621453.95</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6432481.68</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -813,12 +695,6 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>626215.74</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6428955.3</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -830,12 +706,6 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>623999.62</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6429385.94</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -847,12 +717,6 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
-        <v>624586.8199999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6429450.87</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -864,12 +728,6 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
-        <v>592807.72</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6433321.3</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -881,12 +739,6 @@
       <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="D24" t="n">
-        <v>623442.65</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6429953.89</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -898,12 +750,6 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>595216.61</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6437555.76</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -915,12 +761,6 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
-        <v>608870.13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6435062.56</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -932,12 +772,6 @@
       <c r="C27" t="n">
         <v>2</v>
       </c>
-      <c r="D27" t="n">
-        <v>610166.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6431964.8</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -949,12 +783,6 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>609864.8100000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6432605.16</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -966,12 +794,6 @@
       <c r="C29" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="n">
-        <v>610276.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6433396.56</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -983,12 +805,6 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="n">
-        <v>609470.0699999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6433685.66</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1000,12 +816,6 @@
       <c r="C31" t="n">
         <v>3</v>
       </c>
-      <c r="D31" t="n">
-        <v>610493.3199999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6434284.02</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1017,12 +827,6 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="n">
-        <v>611837.78</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6430559.61</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1034,12 +838,6 @@
       <c r="C33" t="n">
         <v>2</v>
       </c>
-      <c r="D33" t="n">
-        <v>606009.62</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6433102.34</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1051,12 +849,6 @@
       <c r="C34" t="n">
         <v>3</v>
       </c>
-      <c r="D34" t="n">
-        <v>611733.62</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6431120.23</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1068,12 +860,6 @@
       <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="D35" t="n">
-        <v>611193.3100000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6431556.52</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -1085,12 +871,6 @@
       <c r="C36" t="n">
         <v>2</v>
       </c>
-      <c r="D36" t="n">
-        <v>611161.6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6432111.62</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -1102,12 +882,6 @@
       <c r="C37" t="n">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>610929.66</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6439838.51</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1119,12 +893,6 @@
       <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="n">
-        <v>607630.36</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6435297.14</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1136,12 +904,6 @@
       <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="n">
-        <v>608960.13</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6436246.27</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1153,12 +915,6 @@
       <c r="C40" t="n">
         <v>1</v>
       </c>
-      <c r="D40" t="n">
-        <v>610400.28</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6436602.54</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1170,12 +926,6 @@
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" t="n">
-        <v>607444.09</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6436108.94</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1187,12 +937,6 @@
       <c r="C42" t="n">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>608455.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6436051.19</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1204,12 +948,6 @@
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43" t="n">
-        <v>609217.05</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6438192.17</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -1221,12 +959,6 @@
       <c r="C44" t="n">
         <v>5</v>
       </c>
-      <c r="D44" t="n">
-        <v>610980.9399999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6435533.09</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1238,12 +970,6 @@
       <c r="C45" t="n">
         <v>3</v>
       </c>
-      <c r="D45" t="n">
-        <v>612621.36</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6436913.43</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -1255,12 +981,6 @@
       <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>608366.08</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6433515.93</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1272,12 +992,6 @@
       <c r="C47" t="n">
         <v>2</v>
       </c>
-      <c r="D47" t="n">
-        <v>608209.8</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6434420.65</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1289,12 +1003,6 @@
       <c r="C48" t="n">
         <v>2</v>
       </c>
-      <c r="D48" t="n">
-        <v>609086.36</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6432585.15</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1306,12 +1014,6 @@
       <c r="C49" t="n">
         <v>2</v>
       </c>
-      <c r="D49" t="n">
-        <v>608189.15</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6433993.74</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -1323,12 +1025,6 @@
       <c r="C50" t="n">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>608726.64</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6433073</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -1340,12 +1036,6 @@
       <c r="C51" t="n">
         <v>2</v>
       </c>
-      <c r="D51" t="n">
-        <v>609062.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6434140.37</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1357,12 +1047,6 @@
       <c r="C52" t="n">
         <v>2</v>
       </c>
-      <c r="D52" t="n">
-        <v>611180.87</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6432858.52</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -1374,12 +1058,6 @@
       <c r="C53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>611579.79</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6433714.57</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1391,12 +1069,6 @@
       <c r="C54" t="n">
         <v>3</v>
       </c>
-      <c r="D54" t="n">
-        <v>606106.04</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6450798.92</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -1408,12 +1080,6 @@
       <c r="C55" t="n">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>606722.55</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6448720.86</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -1425,12 +1091,6 @@
       <c r="C56" t="n">
         <v>2</v>
       </c>
-      <c r="D56" t="n">
-        <v>604901.64</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6445557.67</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -1442,12 +1102,6 @@
       <c r="C57" t="n">
         <v>2</v>
       </c>
-      <c r="D57" t="n">
-        <v>606482.16</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6445520.4</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -1459,12 +1113,6 @@
       <c r="C58" t="n">
         <v>1</v>
       </c>
-      <c r="D58" t="n">
-        <v>625411.5600000001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6429136.2</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1479,12 +1127,6 @@
       </c>
       <c r="C59" t="n">
         <v>2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>612565.3100000001</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6465756.97</v>
       </c>
     </row>
     <row r="60">
@@ -1497,12 +1139,6 @@
       <c r="C60" t="n">
         <v>2</v>
       </c>
-      <c r="D60" t="n">
-        <v>620399.35</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6463569.95</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -1514,12 +1150,6 @@
       <c r="C61" t="n">
         <v>2</v>
       </c>
-      <c r="D61" t="n">
-        <v>621345.13</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6464863.22</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -1531,12 +1161,6 @@
       <c r="C62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" t="n">
-        <v>618665.16</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6466207.91</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -1548,12 +1172,6 @@
       <c r="C63" t="n">
         <v>2</v>
       </c>
-      <c r="D63" t="n">
-        <v>609161.29</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6451928.74</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -1565,12 +1183,6 @@
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" t="n">
-        <v>608034.34</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6452389.18</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -1582,12 +1194,6 @@
       <c r="C65" t="n">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>607642.85</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6451089.7</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1602,12 +1208,6 @@
       </c>
       <c r="C66" t="n">
         <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>605581</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6427892.23</v>
       </c>
     </row>
     <row r="67">
@@ -1620,12 +1220,6 @@
       <c r="C67" t="n">
         <v>1</v>
       </c>
-      <c r="D67" t="n">
-        <v>608073.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6430244.81</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -1637,12 +1231,6 @@
       <c r="C68" t="n">
         <v>1</v>
       </c>
-      <c r="D68" t="n">
-        <v>605709.88</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6431993.16</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -1654,12 +1242,6 @@
       <c r="C69" t="n">
         <v>1</v>
       </c>
-      <c r="D69" t="n">
-        <v>598027.75</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6431860.38</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -1671,12 +1253,6 @@
       <c r="C70" t="n">
         <v>1</v>
       </c>
-      <c r="D70" t="n">
-        <v>598921.24</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6434750.68</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -1688,12 +1264,6 @@
       <c r="C71" t="n">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>602812.36</v>
-      </c>
-      <c r="E71" t="n">
-        <v>6433981.57</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -1705,12 +1275,6 @@
       <c r="C72" t="n">
         <v>1</v>
       </c>
-      <c r="D72" t="n">
-        <v>604993.05</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6436607.28</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -1722,12 +1286,6 @@
       <c r="C73" t="n">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>593871.76</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6437979.93</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
@@ -1739,12 +1297,6 @@
       <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="D74" t="n">
-        <v>599847.67</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6442121.73</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -1756,12 +1308,6 @@
       <c r="C75" t="n">
         <v>1</v>
       </c>
-      <c r="D75" t="n">
-        <v>591384.97</v>
-      </c>
-      <c r="E75" t="n">
-        <v>6442715.75</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -1773,12 +1319,6 @@
       <c r="C76" t="n">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>590724.84</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6435678.74</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
@@ -1790,12 +1330,6 @@
       <c r="C77" t="n">
         <v>1</v>
       </c>
-      <c r="D77" t="n">
-        <v>599260.8100000001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6446407.44</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
@@ -1807,12 +1341,6 @@
       <c r="C78" t="n">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>590838.9399999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6448969.9</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
@@ -1824,12 +1352,6 @@
       <c r="C79" t="n">
         <v>1</v>
       </c>
-      <c r="D79" t="n">
-        <v>584932.46</v>
-      </c>
-      <c r="E79" t="n">
-        <v>6444075.8</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -1841,12 +1363,6 @@
       <c r="C80" t="n">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>601689.6</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6432284.17</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
@@ -1858,12 +1374,6 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>599309.8199999999</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6454044.06</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
@@ -1875,12 +1385,6 @@
       <c r="C82" t="n">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>577687.59</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6447672.38</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -1892,12 +1396,6 @@
       <c r="C83" t="n">
         <v>1</v>
       </c>
-      <c r="D83" t="n">
-        <v>587420.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>6457908.27</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -1909,12 +1407,6 @@
       <c r="C84" t="n">
         <v>1</v>
       </c>
-      <c r="D84" t="n">
-        <v>565926.97</v>
-      </c>
-      <c r="E84" t="n">
-        <v>6458224.49</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
@@ -1926,12 +1418,6 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
-      <c r="D85" t="n">
-        <v>585058.13</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6436410.48</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
@@ -1943,12 +1429,6 @@
       <c r="C86" t="n">
         <v>1</v>
       </c>
-      <c r="D86" t="n">
-        <v>581713.23</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6451547.95</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -1960,12 +1440,6 @@
       <c r="C87" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="n">
-        <v>606522.2159990401</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6454237.254746</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -1977,12 +1451,6 @@
       <c r="C88" t="n">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>595639.1800000001</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6461253.72</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
@@ -1994,12 +1462,6 @@
       <c r="C89" t="n">
         <v>1</v>
       </c>
-      <c r="D89" t="n">
-        <v>605836.67</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6462303.39</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
@@ -2011,12 +1473,6 @@
       <c r="C90" t="n">
         <v>1</v>
       </c>
-      <c r="D90" t="n">
-        <v>574229.75</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6459920.4</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
@@ -2028,12 +1484,6 @@
       <c r="C91" t="n">
         <v>1</v>
       </c>
-      <c r="D91" t="n">
-        <v>578474.46</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6465110.5</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -2045,12 +1495,6 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>567856.84</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6479233.88</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
@@ -2062,12 +1506,6 @@
       <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" t="n">
-        <v>578350.34</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6455559.42</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
@@ -2079,12 +1517,6 @@
       <c r="C94" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="n">
-        <v>593320.29</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6428848.42</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
@@ -2096,12 +1528,6 @@
       <c r="C95" t="n">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>622382.15</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6424567.65</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -2113,12 +1539,6 @@
       <c r="C96" t="n">
         <v>3</v>
       </c>
-      <c r="D96" t="n">
-        <v>600603.48</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6432201.5</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
@@ -2130,12 +1550,6 @@
       <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>602443.46</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6431788.48</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
@@ -2147,12 +1561,6 @@
       <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>587878.33</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6453454.05</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
@@ -2164,12 +1572,6 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
-      <c r="D99" t="n">
-        <v>587693.1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6439372.35</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
@@ -2181,12 +1583,6 @@
       <c r="C100" t="n">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>608051.55</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6423118.02</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
@@ -2198,12 +1594,6 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>615108.79</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6425465.84</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
@@ -2215,12 +1605,6 @@
       <c r="C102" t="n">
         <v>1</v>
       </c>
-      <c r="D102" t="n">
-        <v>597540.52</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6438837.24</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
@@ -2232,12 +1616,6 @@
       <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="D103" t="n">
-        <v>591607.42</v>
-      </c>
-      <c r="E103" t="n">
-        <v>6457270.17</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
@@ -2249,12 +1627,6 @@
       <c r="C104" t="n">
         <v>1</v>
       </c>
-      <c r="D104" t="n">
-        <v>593284.25</v>
-      </c>
-      <c r="E104" t="n">
-        <v>6436535.86</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
@@ -2266,12 +1638,6 @@
       <c r="C105" t="n">
         <v>1</v>
       </c>
-      <c r="D105" t="n">
-        <v>614192.64</v>
-      </c>
-      <c r="E105" t="n">
-        <v>6429001.33</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
@@ -2283,12 +1649,6 @@
       <c r="C106" t="n">
         <v>1</v>
       </c>
-      <c r="D106" t="n">
-        <v>622356.74</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6427345.21</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
@@ -2300,12 +1660,6 @@
       <c r="C107" t="n">
         <v>2</v>
       </c>
-      <c r="D107" t="n">
-        <v>593654.1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>6435407.99</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -2317,12 +1671,6 @@
       <c r="C108" t="n">
         <v>2</v>
       </c>
-      <c r="D108" t="n">
-        <v>592561.9300000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6436226.71</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
@@ -2334,12 +1682,6 @@
       <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="D109" t="n">
-        <v>591663.0699999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>6436688.55</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
@@ -2351,12 +1693,6 @@
       <c r="C110" t="n">
         <v>2</v>
       </c>
-      <c r="D110" t="n">
-        <v>590192.23</v>
-      </c>
-      <c r="E110" t="n">
-        <v>6436246.19</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
@@ -2368,12 +1704,6 @@
       <c r="C111" t="n">
         <v>3</v>
       </c>
-      <c r="D111" t="n">
-        <v>585976.72</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6439320.65</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
@@ -2385,12 +1715,6 @@
       <c r="C112" t="n">
         <v>1</v>
       </c>
-      <c r="D112" t="n">
-        <v>594332.91</v>
-      </c>
-      <c r="E112" t="n">
-        <v>6434806.14</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
@@ -2402,12 +1726,6 @@
       <c r="C113" t="n">
         <v>1</v>
       </c>
-      <c r="D113" t="n">
-        <v>592958.66</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6435578.22</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
@@ -2419,12 +1737,6 @@
       <c r="C114" t="n">
         <v>2</v>
       </c>
-      <c r="D114" t="n">
-        <v>590765.73</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6436507.35</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
@@ -2436,12 +1748,6 @@
       <c r="C115" t="n">
         <v>1</v>
       </c>
-      <c r="D115" t="n">
-        <v>590078.59</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6436940.59</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
@@ -2453,12 +1759,6 @@
       <c r="C116" t="n">
         <v>2</v>
       </c>
-      <c r="D116" t="n">
-        <v>612065.4300000001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6420747.72</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
@@ -2470,12 +1770,6 @@
       <c r="C117" t="n">
         <v>1</v>
       </c>
-      <c r="D117" t="n">
-        <v>594705.09</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6435259.64</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
@@ -2487,12 +1781,6 @@
       <c r="C118" t="n">
         <v>2</v>
       </c>
-      <c r="D118" t="n">
-        <v>600982.28</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6425949.32</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
@@ -2504,12 +1792,6 @@
       <c r="C119" t="n">
         <v>2</v>
       </c>
-      <c r="D119" t="n">
-        <v>593304.58</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6434641.25</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
@@ -2521,12 +1803,6 @@
       <c r="C120" t="n">
         <v>1</v>
       </c>
-      <c r="D120" t="n">
-        <v>592193.0600000001</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6435214.75</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
@@ -2538,12 +1814,6 @@
       <c r="C121" t="n">
         <v>1</v>
       </c>
-      <c r="D121" t="n">
-        <v>591543.22</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6434072.62</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
@@ -2555,12 +1825,6 @@
       <c r="C122" t="n">
         <v>3</v>
       </c>
-      <c r="D122" t="n">
-        <v>589997.76</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6434904.32</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
@@ -2572,12 +1836,6 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D123" t="n">
-        <v>590774.47</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6434593.72</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
@@ -2589,12 +1847,6 @@
       <c r="C124" t="n">
         <v>1</v>
       </c>
-      <c r="D124" t="n">
-        <v>592807.72</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6433321.3</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
@@ -2606,12 +1858,6 @@
       <c r="C125" t="n">
         <v>1</v>
       </c>
-      <c r="D125" t="n">
-        <v>593372.49</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6433094.12</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
@@ -2623,12 +1869,6 @@
       <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="D126" t="n">
-        <v>599902.08</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6426291.29</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
@@ -2640,12 +1880,6 @@
       <c r="C127" t="n">
         <v>1</v>
       </c>
-      <c r="D127" t="n">
-        <v>601782.8199999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6433415.19</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
@@ -2657,12 +1891,6 @@
       <c r="C128" t="n">
         <v>3</v>
       </c>
-      <c r="D128" t="n">
-        <v>601226.35</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6425292.95</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
@@ -2674,12 +1902,6 @@
       <c r="C129" t="n">
         <v>2</v>
       </c>
-      <c r="D129" t="n">
-        <v>602325.67</v>
-      </c>
-      <c r="E129" t="n">
-        <v>6425296.99</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
@@ -2691,12 +1913,6 @@
       <c r="C130" t="n">
         <v>2</v>
       </c>
-      <c r="D130" t="n">
-        <v>610350.22</v>
-      </c>
-      <c r="E130" t="n">
-        <v>6420872.63</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
@@ -2708,12 +1924,6 @@
       <c r="C131" t="n">
         <v>1</v>
       </c>
-      <c r="D131" t="n">
-        <v>587163.78</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6433195.93</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
@@ -2725,12 +1935,6 @@
       <c r="C132" t="n">
         <v>1</v>
       </c>
-      <c r="D132" t="n">
-        <v>591938.9399999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>6435999.23</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
@@ -2742,12 +1946,6 @@
       <c r="C133" t="n">
         <v>1</v>
       </c>
-      <c r="D133" t="n">
-        <v>589028.29</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6435760.27</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
@@ -2759,12 +1957,6 @@
       <c r="C134" t="n">
         <v>2</v>
       </c>
-      <c r="D134" t="n">
-        <v>589273.36</v>
-      </c>
-      <c r="E134" t="n">
-        <v>6435190.47</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
@@ -2776,12 +1968,6 @@
       <c r="C135" t="n">
         <v>1</v>
       </c>
-      <c r="D135" t="n">
-        <v>591446.58</v>
-      </c>
-      <c r="E135" t="n">
-        <v>6434894.77</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
@@ -2793,12 +1979,6 @@
       <c r="C136" t="n">
         <v>1</v>
       </c>
-      <c r="D136" t="n">
-        <v>592547.42</v>
-      </c>
-      <c r="E136" t="n">
-        <v>6434299.19</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
@@ -2810,12 +1990,6 @@
       <c r="C137" t="n">
         <v>1</v>
       </c>
-      <c r="D137" t="n">
-        <v>590102.59</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6434295.84</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
@@ -2827,12 +2001,6 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
-      <c r="D138" t="n">
-        <v>590865.75</v>
-      </c>
-      <c r="E138" t="n">
-        <v>6433693.86</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
@@ -2844,12 +2012,6 @@
       <c r="C139" t="n">
         <v>1</v>
       </c>
-      <c r="D139" t="n">
-        <v>591888.02</v>
-      </c>
-      <c r="E139" t="n">
-        <v>6433286.5</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
@@ -2861,12 +2023,6 @@
       <c r="C140" t="n">
         <v>1</v>
       </c>
-      <c r="D140" t="n">
-        <v>593005.09</v>
-      </c>
-      <c r="E140" t="n">
-        <v>6432544.71</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
@@ -2878,12 +2034,6 @@
       <c r="C141" t="n">
         <v>1</v>
       </c>
-      <c r="D141" t="n">
-        <v>602166.73</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6432914.56</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
@@ -2895,12 +2045,6 @@
       <c r="C142" t="n">
         <v>1</v>
       </c>
-      <c r="D142" t="n">
-        <v>605390.83</v>
-      </c>
-      <c r="E142" t="n">
-        <v>6428869.44</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
@@ -2912,12 +2056,6 @@
       <c r="C143" t="n">
         <v>2</v>
       </c>
-      <c r="D143" t="n">
-        <v>601066.66</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6432863.48</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
@@ -2929,12 +2067,6 @@
       <c r="C144" t="n">
         <v>1</v>
       </c>
-      <c r="D144" t="n">
-        <v>604682.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6429304.22</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
@@ -2946,12 +2078,6 @@
       <c r="C145" t="n">
         <v>2</v>
       </c>
-      <c r="D145" t="n">
-        <v>602846.4399999999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6427209.14</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
@@ -2963,12 +2089,6 @@
       <c r="C146" t="n">
         <v>1</v>
       </c>
-      <c r="D146" t="n">
-        <v>603023.65</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6428276.55</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
@@ -2980,12 +2100,6 @@
       <c r="C147" t="n">
         <v>1</v>
       </c>
-      <c r="D147" t="n">
-        <v>602969.88</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6429065.7</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -2997,12 +2111,6 @@
       <c r="C148" t="n">
         <v>1</v>
       </c>
-      <c r="D148" t="n">
-        <v>601948.98</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6426842.18</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
@@ -3014,12 +2122,6 @@
       <c r="C149" t="n">
         <v>1</v>
       </c>
-      <c r="D149" t="n">
-        <v>602412.02</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6428520.25</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
@@ -3031,12 +2133,6 @@
       <c r="C150" t="n">
         <v>1</v>
       </c>
-      <c r="D150" t="n">
-        <v>604661.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6427301.48</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
@@ -3048,12 +2144,6 @@
       <c r="C151" t="n">
         <v>2</v>
       </c>
-      <c r="D151" t="n">
-        <v>604713.76</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6427931.47</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -3065,12 +2155,6 @@
       <c r="C152" t="n">
         <v>1</v>
       </c>
-      <c r="D152" t="n">
-        <v>600160.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6428441.09</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
@@ -3082,12 +2166,6 @@
       <c r="C153" t="n">
         <v>1</v>
       </c>
-      <c r="D153" t="n">
-        <v>599390.3100000001</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6428244.45</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
@@ -3099,12 +2177,6 @@
       <c r="C154" t="n">
         <v>1</v>
       </c>
-      <c r="D154" t="n">
-        <v>602353.6800000001</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6427570.29</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
@@ -3116,12 +2188,6 @@
       <c r="C155" t="n">
         <v>2</v>
       </c>
-      <c r="D155" t="n">
-        <v>603941.1899999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6425744.16</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
@@ -3133,12 +2199,6 @@
       <c r="C156" t="n">
         <v>2</v>
       </c>
-      <c r="D156" t="n">
-        <v>602934.51</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6425497.84</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
@@ -3150,12 +2210,6 @@
       <c r="C157" t="n">
         <v>2</v>
       </c>
-      <c r="D157" t="n">
-        <v>601067.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6430965.36</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -3167,12 +2221,6 @@
       <c r="C158" t="n">
         <v>1</v>
       </c>
-      <c r="D158" t="n">
-        <v>601427</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6426580.61</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
@@ -3184,12 +2232,6 @@
       <c r="C159" t="n">
         <v>1</v>
       </c>
-      <c r="D159" t="n">
-        <v>600398.08</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6433025.56</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -3201,12 +2243,6 @@
       <c r="C160" t="n">
         <v>2</v>
       </c>
-      <c r="D160" t="n">
-        <v>605737.28</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6433571.38</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -3218,12 +2254,6 @@
       <c r="C161" t="n">
         <v>1</v>
       </c>
-      <c r="D161" t="n">
-        <v>603773.08</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6429613.16</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -3235,12 +2265,6 @@
       <c r="C162" t="n">
         <v>1</v>
       </c>
-      <c r="D162" t="n">
-        <v>604298.74</v>
-      </c>
-      <c r="E162" t="n">
-        <v>6428409.03</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
@@ -3252,12 +2276,6 @@
       <c r="C163" t="n">
         <v>1</v>
       </c>
-      <c r="D163" t="n">
-        <v>603050.02</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6430122.46</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -3269,12 +2287,6 @@
       <c r="C164" t="n">
         <v>1</v>
       </c>
-      <c r="D164" t="n">
-        <v>604053.38</v>
-      </c>
-      <c r="E164" t="n">
-        <v>6427722.24</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
@@ -3286,12 +2298,6 @@
       <c r="C165" t="n">
         <v>3</v>
       </c>
-      <c r="D165" t="n">
-        <v>603624.0699999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6426780.98</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
@@ -3303,12 +2309,6 @@
       <c r="C166" t="n">
         <v>1</v>
       </c>
-      <c r="D166" t="n">
-        <v>596435.4300000001</v>
-      </c>
-      <c r="E166" t="n">
-        <v>6430125.53</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
@@ -3320,12 +2320,6 @@
       <c r="C167" t="n">
         <v>1</v>
       </c>
-      <c r="D167" t="n">
-        <v>597687.41</v>
-      </c>
-      <c r="E167" t="n">
-        <v>6428821.88</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
@@ -3337,12 +2331,6 @@
       <c r="C168" t="n">
         <v>1</v>
       </c>
-      <c r="D168" t="n">
-        <v>600554.77</v>
-      </c>
-      <c r="E168" t="n">
-        <v>6426599.88</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
@@ -3354,12 +2342,6 @@
       <c r="C169" t="n">
         <v>2</v>
       </c>
-      <c r="D169" t="n">
-        <v>600079.23</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6427104.92</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
@@ -3371,12 +2353,6 @@
       <c r="C170" t="n">
         <v>2</v>
       </c>
-      <c r="D170" t="n">
-        <v>600879.71</v>
-      </c>
-      <c r="E170" t="n">
-        <v>6427619.6</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n"/>
@@ -3388,12 +2364,6 @@
       <c r="C171" t="n">
         <v>2</v>
       </c>
-      <c r="D171" t="n">
-        <v>602764.66</v>
-      </c>
-      <c r="E171" t="n">
-        <v>6426531.56</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
@@ -3405,12 +2375,6 @@
       <c r="C172" t="n">
         <v>1</v>
       </c>
-      <c r="D172" t="n">
-        <v>603737.91</v>
-      </c>
-      <c r="E172" t="n">
-        <v>6428682.84</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
@@ -3422,12 +2386,6 @@
       <c r="C173" t="n">
         <v>2</v>
       </c>
-      <c r="D173" t="n">
-        <v>604822.64</v>
-      </c>
-      <c r="E173" t="n">
-        <v>6426766.46</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n"/>
@@ -3439,12 +2397,6 @@
       <c r="C174" t="n">
         <v>2</v>
       </c>
-      <c r="D174" t="n">
-        <v>595216.61</v>
-      </c>
-      <c r="E174" t="n">
-        <v>6437555.76</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n"/>
@@ -3456,12 +2408,6 @@
       <c r="C175" t="n">
         <v>2</v>
       </c>
-      <c r="D175" t="n">
-        <v>596534.84</v>
-      </c>
-      <c r="E175" t="n">
-        <v>6437720.64</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n"/>
@@ -3473,12 +2419,6 @@
       <c r="C176" t="n">
         <v>1</v>
       </c>
-      <c r="D176" t="n">
-        <v>601744.16</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6427384.88</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n"/>
@@ -3490,12 +2430,6 @@
       <c r="C177" t="n">
         <v>2</v>
       </c>
-      <c r="D177" t="n">
-        <v>600535.75</v>
-      </c>
-      <c r="E177" t="n">
-        <v>6431495.61</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n"/>
@@ -3507,12 +2441,6 @@
       <c r="C178" t="n">
         <v>1</v>
       </c>
-      <c r="D178" t="n">
-        <v>621430.21</v>
-      </c>
-      <c r="E178" t="n">
-        <v>6424907.25</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
@@ -3524,12 +2452,6 @@
       <c r="C179" t="n">
         <v>1</v>
       </c>
-      <c r="D179" t="n">
-        <v>620746.92</v>
-      </c>
-      <c r="E179" t="n">
-        <v>6425283.53</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
@@ -3541,12 +2463,6 @@
       <c r="C180" t="n">
         <v>2</v>
       </c>
-      <c r="D180" t="n">
-        <v>623216.4</v>
-      </c>
-      <c r="E180" t="n">
-        <v>6425144.24</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
@@ -3558,12 +2474,6 @@
       <c r="C181" t="n">
         <v>2</v>
       </c>
-      <c r="D181" t="n">
-        <v>623179.9399999999</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6424413</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
@@ -3575,12 +2485,6 @@
       <c r="C182" t="n">
         <v>3</v>
       </c>
-      <c r="D182" t="n">
-        <v>623722.97</v>
-      </c>
-      <c r="E182" t="n">
-        <v>6428730.75</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
@@ -3592,12 +2496,6 @@
       <c r="C183" t="n">
         <v>2</v>
       </c>
-      <c r="D183" t="n">
-        <v>625732.27</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6428227.68</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
@@ -3609,12 +2507,6 @@
       <c r="C184" t="n">
         <v>2</v>
       </c>
-      <c r="D184" t="n">
-        <v>623882.6899999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6427775.32</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
@@ -3626,12 +2518,6 @@
       <c r="C185" t="n">
         <v>2</v>
       </c>
-      <c r="D185" t="n">
-        <v>595928.38</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6439173.98</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
@@ -3643,12 +2529,6 @@
       <c r="C186" t="n">
         <v>2</v>
       </c>
-      <c r="D186" t="n">
-        <v>598341.88</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6437401.35</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
@@ -3660,12 +2540,6 @@
       <c r="C187" t="n">
         <v>1</v>
       </c>
-      <c r="D187" t="n">
-        <v>624457.58</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6425375.27</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
@@ -3677,12 +2551,6 @@
       <c r="C188" t="n">
         <v>2</v>
       </c>
-      <c r="D188" t="n">
-        <v>620170.02</v>
-      </c>
-      <c r="E188" t="n">
-        <v>6427412.99</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
@@ -3694,12 +2562,6 @@
       <c r="C189" t="n">
         <v>3</v>
       </c>
-      <c r="D189" t="n">
-        <v>593314.8100000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>6438886.09</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
@@ -3711,12 +2573,6 @@
       <c r="C190" t="n">
         <v>3</v>
       </c>
-      <c r="D190" t="n">
-        <v>605287.22</v>
-      </c>
-      <c r="E190" t="n">
-        <v>6433031.52</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n"/>
@@ -3728,12 +2584,6 @@
       <c r="C191" t="n">
         <v>2</v>
       </c>
-      <c r="D191" t="n">
-        <v>602272.9399999999</v>
-      </c>
-      <c r="E191" t="n">
-        <v>6425932.66</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
@@ -3745,12 +2595,6 @@
       <c r="C192" t="n">
         <v>2</v>
       </c>
-      <c r="D192" t="n">
-        <v>603293.03</v>
-      </c>
-      <c r="E192" t="n">
-        <v>6426236.88</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
@@ -3762,12 +2606,6 @@
       <c r="C193" t="n">
         <v>2</v>
       </c>
-      <c r="D193" t="n">
-        <v>605782.16</v>
-      </c>
-      <c r="E193" t="n">
-        <v>6435210.02</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
@@ -3779,12 +2617,6 @@
       <c r="C194" t="n">
         <v>2</v>
       </c>
-      <c r="D194" t="n">
-        <v>598753.28</v>
-      </c>
-      <c r="E194" t="n">
-        <v>6436598.78</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
@@ -3796,12 +2628,6 @@
       <c r="C195" t="n">
         <v>2</v>
       </c>
-      <c r="D195" t="n">
-        <v>595123.72</v>
-      </c>
-      <c r="E195" t="n">
-        <v>6438060.23</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
@@ -3813,12 +2639,6 @@
       <c r="C196" t="n">
         <v>1</v>
       </c>
-      <c r="D196" t="n">
-        <v>596541.59</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6436323.52</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
@@ -3830,12 +2650,6 @@
       <c r="C197" t="n">
         <v>1</v>
       </c>
-      <c r="D197" t="n">
-        <v>598366.39</v>
-      </c>
-      <c r="E197" t="n">
-        <v>6435667.11</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
@@ -3847,12 +2661,6 @@
       <c r="C198" t="n">
         <v>3</v>
       </c>
-      <c r="D198" t="n">
-        <v>592239.39</v>
-      </c>
-      <c r="E198" t="n">
-        <v>6438259.98</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
@@ -3864,12 +2672,6 @@
       <c r="C199" t="n">
         <v>2</v>
       </c>
-      <c r="D199" t="n">
-        <v>589395.1800000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>6436555.14</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
@@ -3881,12 +2683,6 @@
       <c r="C200" t="n">
         <v>6</v>
       </c>
-      <c r="D200" t="n">
-        <v>595750.23</v>
-      </c>
-      <c r="E200" t="n">
-        <v>6436142.26</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
@@ -3898,12 +2694,6 @@
       <c r="C201" t="n">
         <v>1</v>
       </c>
-      <c r="D201" t="n">
-        <v>600700.22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>6433977.61</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
@@ -3915,12 +2705,6 @@
       <c r="C202" t="n">
         <v>1</v>
       </c>
-      <c r="D202" t="n">
-        <v>595892.98</v>
-      </c>
-      <c r="E202" t="n">
-        <v>6434360.06</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
@@ -3932,12 +2716,6 @@
       <c r="C203" t="n">
         <v>1</v>
       </c>
-      <c r="D203" t="n">
-        <v>597189.66</v>
-      </c>
-      <c r="E203" t="n">
-        <v>6434131.8</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
@@ -3949,12 +2727,6 @@
       <c r="C204" t="n">
         <v>1</v>
       </c>
-      <c r="D204" t="n">
-        <v>599566.9</v>
-      </c>
-      <c r="E204" t="n">
-        <v>6432597.25</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
@@ -3966,12 +2738,6 @@
       <c r="C205" t="n">
         <v>1</v>
       </c>
-      <c r="D205" t="n">
-        <v>594456.5600000001</v>
-      </c>
-      <c r="E205" t="n">
-        <v>6433938.65</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n"/>
@@ -3983,12 +2749,6 @@
       <c r="C206" t="n">
         <v>1</v>
       </c>
-      <c r="D206" t="n">
-        <v>595281.0699999999</v>
-      </c>
-      <c r="E206" t="n">
-        <v>6433514.33</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
@@ -4000,12 +2760,6 @@
       <c r="C207" t="n">
         <v>1</v>
       </c>
-      <c r="D207" t="n">
-        <v>596081.4300000001</v>
-      </c>
-      <c r="E207" t="n">
-        <v>6430831.88</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n"/>
@@ -4017,12 +2771,6 @@
       <c r="C208" t="n">
         <v>1</v>
       </c>
-      <c r="D208" t="n">
-        <v>593986.74</v>
-      </c>
-      <c r="E208" t="n">
-        <v>6432825.04</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n"/>
@@ -4034,12 +2782,6 @@
       <c r="C209" t="n">
         <v>1</v>
       </c>
-      <c r="D209" t="n">
-        <v>594776.6899999999</v>
-      </c>
-      <c r="E209" t="n">
-        <v>6432420.65</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n"/>
@@ -4051,12 +2793,6 @@
       <c r="C210" t="n">
         <v>1</v>
       </c>
-      <c r="D210" t="n">
-        <v>596136.15</v>
-      </c>
-      <c r="E210" t="n">
-        <v>6431489.69</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n"/>
@@ -4068,12 +2804,6 @@
       <c r="C211" t="n">
         <v>1</v>
       </c>
-      <c r="D211" t="n">
-        <v>595485.95</v>
-      </c>
-      <c r="E211" t="n">
-        <v>6430554.23</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n"/>
@@ -4085,12 +2815,6 @@
       <c r="C212" t="n">
         <v>1</v>
       </c>
-      <c r="D212" t="n">
-        <v>597722.23</v>
-      </c>
-      <c r="E212" t="n">
-        <v>6432414.93</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n"/>
@@ -4102,12 +2826,6 @@
       <c r="C213" t="n">
         <v>1</v>
       </c>
-      <c r="D213" t="n">
-        <v>593281.37</v>
-      </c>
-      <c r="E213" t="n">
-        <v>6431914.04</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
@@ -4119,12 +2837,6 @@
       <c r="C214" t="n">
         <v>1</v>
       </c>
-      <c r="D214" t="n">
-        <v>594287.64</v>
-      </c>
-      <c r="E214" t="n">
-        <v>6431301.62</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n"/>
@@ -4136,12 +2848,6 @@
       <c r="C215" t="n">
         <v>1</v>
       </c>
-      <c r="D215" t="n">
-        <v>596723.2</v>
-      </c>
-      <c r="E215" t="n">
-        <v>6432913.29</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
@@ -4153,12 +2859,6 @@
       <c r="C216" t="n">
         <v>2</v>
       </c>
-      <c r="D216" t="n">
-        <v>596571.48</v>
-      </c>
-      <c r="E216" t="n">
-        <v>6429317.25</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
@@ -4170,12 +2870,6 @@
       <c r="C217" t="n">
         <v>1</v>
       </c>
-      <c r="D217" t="n">
-        <v>593924.8199999999</v>
-      </c>
-      <c r="E217" t="n">
-        <v>6430095.54</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
@@ -4187,12 +2881,6 @@
       <c r="C218" t="n">
         <v>1</v>
       </c>
-      <c r="D218" t="n">
-        <v>594664.22</v>
-      </c>
-      <c r="E218" t="n">
-        <v>6429759</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n"/>
@@ -4204,12 +2892,6 @@
       <c r="C219" t="n">
         <v>1</v>
       </c>
-      <c r="D219" t="n">
-        <v>595795.9399999999</v>
-      </c>
-      <c r="E219" t="n">
-        <v>6429150.18</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
@@ -4221,12 +2903,6 @@
       <c r="C220" t="n">
         <v>1</v>
       </c>
-      <c r="D220" t="n">
-        <v>594344.63</v>
-      </c>
-      <c r="E220" t="n">
-        <v>6428819.27</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
@@ -4238,12 +2914,6 @@
       <c r="C221" t="n">
         <v>2</v>
       </c>
-      <c r="D221" t="n">
-        <v>593772.54</v>
-      </c>
-      <c r="E221" t="n">
-        <v>6427920.35</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
@@ -4255,12 +2925,6 @@
       <c r="C222" t="n">
         <v>2</v>
       </c>
-      <c r="D222" t="n">
-        <v>599341.97</v>
-      </c>
-      <c r="E222" t="n">
-        <v>6429791.22</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
@@ -4272,12 +2936,6 @@
       <c r="C223" t="n">
         <v>1</v>
       </c>
-      <c r="D223" t="n">
-        <v>598387.02</v>
-      </c>
-      <c r="E223" t="n">
-        <v>6428387.72</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n"/>
@@ -4289,12 +2947,6 @@
       <c r="C224" t="n">
         <v>3</v>
       </c>
-      <c r="D224" t="n">
-        <v>596203.8</v>
-      </c>
-      <c r="E224" t="n">
-        <v>6437049.22</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
@@ -4306,12 +2958,6 @@
       <c r="C225" t="n">
         <v>2</v>
       </c>
-      <c r="D225" t="n">
-        <v>587949.4300000001</v>
-      </c>
-      <c r="E225" t="n">
-        <v>6439956.02</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n"/>
@@ -4323,12 +2969,6 @@
       <c r="C226" t="n">
         <v>3</v>
       </c>
-      <c r="D226" t="n">
-        <v>588873.3199999999</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6437936.55</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
@@ -4340,12 +2980,6 @@
       <c r="C227" t="n">
         <v>1</v>
       </c>
-      <c r="D227" t="n">
-        <v>587517.51</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6436784.99</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
@@ -4357,12 +2991,6 @@
       <c r="C228" t="n">
         <v>1</v>
       </c>
-      <c r="D228" t="n">
-        <v>587129.38</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6435734.71</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
@@ -4374,12 +3002,6 @@
       <c r="C229" t="n">
         <v>1</v>
       </c>
-      <c r="D229" t="n">
-        <v>623122.59</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6425698.58</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
@@ -4391,12 +3013,6 @@
       <c r="C230" t="n">
         <v>2</v>
       </c>
-      <c r="D230" t="n">
-        <v>606009.62</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6433102.34</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n"/>
@@ -4408,12 +3024,6 @@
       <c r="C231" t="n">
         <v>1</v>
       </c>
-      <c r="D231" t="n">
-        <v>604447.53</v>
-      </c>
-      <c r="E231" t="n">
-        <v>6432610.89</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
@@ -4425,12 +3035,6 @@
       <c r="C232" t="n">
         <v>1</v>
       </c>
-      <c r="D232" t="n">
-        <v>604994</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6433754.65</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n"/>
@@ -4442,12 +3046,6 @@
       <c r="C233" t="n">
         <v>1</v>
       </c>
-      <c r="D233" t="n">
-        <v>604092.3199999999</v>
-      </c>
-      <c r="E233" t="n">
-        <v>6430457.26</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
@@ -4459,12 +3057,6 @@
       <c r="C234" t="n">
         <v>3</v>
       </c>
-      <c r="D234" t="n">
-        <v>595667.77</v>
-      </c>
-      <c r="E234" t="n">
-        <v>6427543.64</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
@@ -4476,12 +3068,6 @@
       <c r="C235" t="n">
         <v>1</v>
       </c>
-      <c r="D235" t="n">
-        <v>600348.04</v>
-      </c>
-      <c r="E235" t="n">
-        <v>6435461.74</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n"/>
@@ -4493,12 +3079,6 @@
       <c r="C236" t="n">
         <v>3</v>
       </c>
-      <c r="D236" t="n">
-        <v>600957.1800000001</v>
-      </c>
-      <c r="E236" t="n">
-        <v>6436049.46</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
@@ -4510,12 +3090,6 @@
       <c r="C237" t="n">
         <v>1</v>
       </c>
-      <c r="D237" t="n">
-        <v>603509.98</v>
-      </c>
-      <c r="E237" t="n">
-        <v>6437235.69</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
@@ -4527,12 +3101,6 @@
       <c r="C238" t="n">
         <v>1</v>
       </c>
-      <c r="D238" t="n">
-        <v>603895.3100000001</v>
-      </c>
-      <c r="E238" t="n">
-        <v>6435495.4</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
@@ -4544,12 +3112,6 @@
       <c r="C239" t="n">
         <v>1</v>
       </c>
-      <c r="D239" t="n">
-        <v>601654.62</v>
-      </c>
-      <c r="E239" t="n">
-        <v>6429836.98</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n"/>
@@ -4561,12 +3123,6 @@
       <c r="C240" t="n">
         <v>1</v>
       </c>
-      <c r="D240" t="n">
-        <v>601870.08</v>
-      </c>
-      <c r="E240" t="n">
-        <v>6435178.61</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n"/>
@@ -4578,12 +3134,6 @@
       <c r="C241" t="n">
         <v>1</v>
       </c>
-      <c r="D241" t="n">
-        <v>604410.23</v>
-      </c>
-      <c r="E241" t="n">
-        <v>6434911.74</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n"/>
@@ -4595,12 +3145,6 @@
       <c r="C242" t="n">
         <v>3</v>
       </c>
-      <c r="D242" t="n">
-        <v>602437.55</v>
-      </c>
-      <c r="E242" t="n">
-        <v>6434472.23</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n"/>
@@ -4612,12 +3156,6 @@
       <c r="C243" t="n">
         <v>1</v>
       </c>
-      <c r="D243" t="n">
-        <v>603457.79</v>
-      </c>
-      <c r="E243" t="n">
-        <v>6432904.66</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n"/>
@@ -4629,12 +3167,6 @@
       <c r="C244" t="n">
         <v>1</v>
       </c>
-      <c r="D244" t="n">
-        <v>601872.74</v>
-      </c>
-      <c r="E244" t="n">
-        <v>6431194.79</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n"/>
@@ -4646,12 +3178,6 @@
       <c r="C245" t="n">
         <v>1</v>
       </c>
-      <c r="D245" t="n">
-        <v>599830.5</v>
-      </c>
-      <c r="E245" t="n">
-        <v>6431082.15</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n"/>
@@ -4663,12 +3189,6 @@
       <c r="C246" t="n">
         <v>1</v>
       </c>
-      <c r="D246" t="n">
-        <v>600403.05</v>
-      </c>
-      <c r="E246" t="n">
-        <v>6430658.44</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n"/>
@@ -4680,12 +3200,6 @@
       <c r="C247" t="n">
         <v>1</v>
       </c>
-      <c r="D247" t="n">
-        <v>601050.16</v>
-      </c>
-      <c r="E247" t="n">
-        <v>6430199.34</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
@@ -4697,12 +3211,6 @@
       <c r="C248" t="n">
         <v>1</v>
       </c>
-      <c r="D248" t="n">
-        <v>602434.23</v>
-      </c>
-      <c r="E248" t="n">
-        <v>6432753.31</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n"/>
@@ -4714,12 +3222,6 @@
       <c r="C249" t="n">
         <v>1</v>
       </c>
-      <c r="D249" t="n">
-        <v>604880.1</v>
-      </c>
-      <c r="E249" t="n">
-        <v>6431679.55</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n"/>
@@ -4731,12 +3233,6 @@
       <c r="C250" t="n">
         <v>1</v>
       </c>
-      <c r="D250" t="n">
-        <v>600233.59</v>
-      </c>
-      <c r="E250" t="n">
-        <v>6429807</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n"/>
@@ -4748,12 +3244,6 @@
       <c r="C251" t="n">
         <v>2</v>
       </c>
-      <c r="D251" t="n">
-        <v>600007.22</v>
-      </c>
-      <c r="E251" t="n">
-        <v>6429132.27</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n"/>
@@ -4765,12 +3255,6 @@
       <c r="C252" t="n">
         <v>2</v>
       </c>
-      <c r="D252" t="n">
-        <v>601507.48</v>
-      </c>
-      <c r="E252" t="n">
-        <v>6428224.76</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n"/>
@@ -4782,12 +3266,6 @@
       <c r="C253" t="n">
         <v>1</v>
       </c>
-      <c r="D253" t="n">
-        <v>601644.78</v>
-      </c>
-      <c r="E253" t="n">
-        <v>6430312.56</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n"/>
@@ -4799,12 +3277,6 @@
       <c r="C254" t="n">
         <v>1</v>
       </c>
-      <c r="D254" t="n">
-        <v>601058.01</v>
-      </c>
-      <c r="E254" t="n">
-        <v>6433495.21</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n"/>
@@ -4816,12 +3288,6 @@
       <c r="C255" t="n">
         <v>2</v>
       </c>
-      <c r="D255" t="n">
-        <v>596551.4</v>
-      </c>
-      <c r="E255" t="n">
-        <v>6435303.86</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n"/>
@@ -4833,12 +3299,6 @@
       <c r="C256" t="n">
         <v>1</v>
       </c>
-      <c r="D256" t="n">
-        <v>597392.51</v>
-      </c>
-      <c r="E256" t="n">
-        <v>6435054.88</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n"/>
@@ -4850,12 +3310,6 @@
       <c r="C257" t="n">
         <v>1</v>
       </c>
-      <c r="D257" t="n">
-        <v>603794.85</v>
-      </c>
-      <c r="E257" t="n">
-        <v>6436027.58</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n"/>
@@ -4867,12 +3321,6 @@
       <c r="C258" t="n">
         <v>1</v>
       </c>
-      <c r="D258" t="n">
-        <v>600879.3199999999</v>
-      </c>
-      <c r="E258" t="n">
-        <v>6434815.24</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n"/>
@@ -4884,12 +3332,6 @@
       <c r="C259" t="n">
         <v>1</v>
       </c>
-      <c r="D259" t="n">
-        <v>594364.26</v>
-      </c>
-      <c r="E259" t="n">
-        <v>6444476.96</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n"/>
@@ -4901,12 +3343,6 @@
       <c r="C260" t="n">
         <v>2</v>
       </c>
-      <c r="D260" t="n">
-        <v>591025.5</v>
-      </c>
-      <c r="E260" t="n">
-        <v>6445001.31</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n"/>
@@ -4918,12 +3354,6 @@
       <c r="C261" t="n">
         <v>2</v>
       </c>
-      <c r="D261" t="n">
-        <v>596509.48</v>
-      </c>
-      <c r="E261" t="n">
-        <v>6447633.53</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n"/>
@@ -4935,12 +3365,6 @@
       <c r="C262" t="n">
         <v>2</v>
       </c>
-      <c r="D262" t="n">
-        <v>601912.1800000001</v>
-      </c>
-      <c r="E262" t="n">
-        <v>6448659.78</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n"/>
@@ -4952,12 +3376,6 @@
       <c r="C263" t="n">
         <v>2</v>
       </c>
-      <c r="D263" t="n">
-        <v>593195.5699999999</v>
-      </c>
-      <c r="E263" t="n">
-        <v>6450636.22</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n"/>
@@ -4969,12 +3387,6 @@
       <c r="C264" t="n">
         <v>1</v>
       </c>
-      <c r="D264" t="n">
-        <v>585019.1800000001</v>
-      </c>
-      <c r="E264" t="n">
-        <v>6450775.61</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n"/>
@@ -4986,12 +3398,6 @@
       <c r="C265" t="n">
         <v>1</v>
       </c>
-      <c r="D265" t="n">
-        <v>586108.99</v>
-      </c>
-      <c r="E265" t="n">
-        <v>6450421.95</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n"/>
@@ -5003,12 +3409,6 @@
       <c r="C266" t="n">
         <v>3</v>
       </c>
-      <c r="D266" t="n">
-        <v>585904.9</v>
-      </c>
-      <c r="E266" t="n">
-        <v>6452179.12</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n"/>
@@ -5020,12 +3420,6 @@
       <c r="C267" t="n">
         <v>1</v>
       </c>
-      <c r="D267" t="n">
-        <v>584656.8100000001</v>
-      </c>
-      <c r="E267" t="n">
-        <v>6449634.61</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n"/>
@@ -5037,12 +3431,6 @@
       <c r="C268" t="n">
         <v>6</v>
       </c>
-      <c r="D268" t="n">
-        <v>597373.72</v>
-      </c>
-      <c r="E268" t="n">
-        <v>6450992.25</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n"/>
@@ -5054,12 +3442,6 @@
       <c r="C269" t="n">
         <v>1</v>
       </c>
-      <c r="D269" t="n">
-        <v>591383.85</v>
-      </c>
-      <c r="E269" t="n">
-        <v>6450040.6</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n"/>
@@ -5071,12 +3453,6 @@
       <c r="C270" t="n">
         <v>1</v>
       </c>
-      <c r="D270" t="n">
-        <v>606406.6</v>
-      </c>
-      <c r="E270" t="n">
-        <v>6432639.59</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n"/>
@@ -5088,12 +3464,6 @@
       <c r="C271" t="n">
         <v>3</v>
       </c>
-      <c r="D271" t="n">
-        <v>608904.6800000001</v>
-      </c>
-      <c r="E271" t="n">
-        <v>6430197.23</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n"/>
@@ -5105,12 +3475,6 @@
       <c r="C272" t="n">
         <v>2</v>
       </c>
-      <c r="D272" t="n">
-        <v>611514.23</v>
-      </c>
-      <c r="E272" t="n">
-        <v>6429677.95</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n"/>
@@ -5122,12 +3486,6 @@
       <c r="C273" t="n">
         <v>1</v>
       </c>
-      <c r="D273" t="n">
-        <v>605771.66</v>
-      </c>
-      <c r="E273" t="n">
-        <v>6429779.31</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n"/>
@@ -5139,12 +3497,6 @@
       <c r="C274" t="n">
         <v>1</v>
       </c>
-      <c r="D274" t="n">
-        <v>606616.97</v>
-      </c>
-      <c r="E274" t="n">
-        <v>6429423.29</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n"/>
@@ -5156,12 +3508,6 @@
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" t="n">
-        <v>606594.09</v>
-      </c>
-      <c r="E275" t="n">
-        <v>6426743.32</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n"/>
@@ -5173,12 +3519,6 @@
       <c r="C276" t="n">
         <v>1</v>
       </c>
-      <c r="D276" t="n">
-        <v>594980.73</v>
-      </c>
-      <c r="E276" t="n">
-        <v>6446652.61</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n"/>
@@ -5190,12 +3530,6 @@
       <c r="C277" t="n">
         <v>1</v>
       </c>
-      <c r="D277" t="n">
-        <v>596658.85</v>
-      </c>
-      <c r="E277" t="n">
-        <v>6446028.34</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n"/>
@@ -5207,12 +3541,6 @@
       <c r="C278" t="n">
         <v>2</v>
       </c>
-      <c r="D278" t="n">
-        <v>607097.9300000001</v>
-      </c>
-      <c r="E278" t="n">
-        <v>6433953.04</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n"/>
@@ -5224,12 +3552,6 @@
       <c r="C279" t="n">
         <v>1</v>
       </c>
-      <c r="D279" t="n">
-        <v>606975.59</v>
-      </c>
-      <c r="E279" t="n">
-        <v>6428230.51</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n"/>
@@ -5241,12 +3563,6 @@
       <c r="C280" t="n">
         <v>1</v>
       </c>
-      <c r="D280" t="n">
-        <v>608684.7</v>
-      </c>
-      <c r="E280" t="n">
-        <v>6427732.83</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n"/>
@@ -5258,12 +3574,6 @@
       <c r="C281" t="n">
         <v>1</v>
       </c>
-      <c r="D281" t="n">
-        <v>609982</v>
-      </c>
-      <c r="E281" t="n">
-        <v>6427451.01</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n"/>
@@ -5275,12 +3585,6 @@
       <c r="C282" t="n">
         <v>1</v>
       </c>
-      <c r="D282" t="n">
-        <v>610351.83</v>
-      </c>
-      <c r="E282" t="n">
-        <v>6426777.57</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n"/>
@@ -5292,12 +3596,6 @@
       <c r="C283" t="n">
         <v>1</v>
       </c>
-      <c r="D283" t="n">
-        <v>612874.21</v>
-      </c>
-      <c r="E283" t="n">
-        <v>6428862.52</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n"/>
@@ -5309,12 +3607,6 @@
       <c r="C284" t="n">
         <v>2</v>
       </c>
-      <c r="D284" t="n">
-        <v>615204.61</v>
-      </c>
-      <c r="E284" t="n">
-        <v>6426119.23</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n"/>
@@ -5326,12 +3618,6 @@
       <c r="C285" t="n">
         <v>1</v>
       </c>
-      <c r="D285" t="n">
-        <v>607355.3100000001</v>
-      </c>
-      <c r="E285" t="n">
-        <v>6427020.3</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n"/>
@@ -5343,12 +3629,6 @@
       <c r="C286" t="n">
         <v>1</v>
       </c>
-      <c r="D286" t="n">
-        <v>610134.25</v>
-      </c>
-      <c r="E286" t="n">
-        <v>6428446.54</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n"/>
@@ -5360,12 +3640,6 @@
       <c r="C287" t="n">
         <v>1</v>
       </c>
-      <c r="D287" t="n">
-        <v>609955.34</v>
-      </c>
-      <c r="E287" t="n">
-        <v>6425719.73</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n"/>
@@ -5377,12 +3651,6 @@
       <c r="C288" t="n">
         <v>1</v>
       </c>
-      <c r="D288" t="n">
-        <v>610525.9</v>
-      </c>
-      <c r="E288" t="n">
-        <v>6426101.26</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n"/>
@@ -5394,12 +3662,6 @@
       <c r="C289" t="n">
         <v>1</v>
       </c>
-      <c r="D289" t="n">
-        <v>613317.87</v>
-      </c>
-      <c r="E289" t="n">
-        <v>6428043.8</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n"/>
@@ -5411,12 +3673,6 @@
       <c r="C290" t="n">
         <v>1</v>
       </c>
-      <c r="D290" t="n">
-        <v>613381.84</v>
-      </c>
-      <c r="E290" t="n">
-        <v>6428636.48</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n"/>
@@ -5428,12 +3684,6 @@
       <c r="C291" t="n">
         <v>1</v>
       </c>
-      <c r="D291" t="n">
-        <v>614332.98</v>
-      </c>
-      <c r="E291" t="n">
-        <v>6425520.93</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n"/>
@@ -5445,12 +3695,6 @@
       <c r="C292" t="n">
         <v>1</v>
       </c>
-      <c r="D292" t="n">
-        <v>607827.17</v>
-      </c>
-      <c r="E292" t="n">
-        <v>6424806.86</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n"/>
@@ -5462,12 +3706,6 @@
       <c r="C293" t="n">
         <v>1</v>
       </c>
-      <c r="D293" t="n">
-        <v>606868.05</v>
-      </c>
-      <c r="E293" t="n">
-        <v>6425599.06</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n"/>
@@ -5479,12 +3717,6 @@
       <c r="C294" t="n">
         <v>2</v>
       </c>
-      <c r="D294" t="n">
-        <v>614451.97</v>
-      </c>
-      <c r="E294" t="n">
-        <v>6424218.14</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n"/>
@@ -5496,12 +3728,6 @@
       <c r="C295" t="n">
         <v>1</v>
       </c>
-      <c r="D295" t="n">
-        <v>610487.09</v>
-      </c>
-      <c r="E295" t="n">
-        <v>6425233.96</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n"/>
@@ -5513,12 +3739,6 @@
       <c r="C296" t="n">
         <v>2</v>
       </c>
-      <c r="D296" t="n">
-        <v>612182.88</v>
-      </c>
-      <c r="E296" t="n">
-        <v>6424921.48</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n"/>
@@ -5530,12 +3750,6 @@
       <c r="C297" t="n">
         <v>1</v>
       </c>
-      <c r="D297" t="n">
-        <v>614868.38</v>
-      </c>
-      <c r="E297" t="n">
-        <v>6424835.74</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n"/>
@@ -5547,12 +3761,6 @@
       <c r="C298" t="n">
         <v>1</v>
       </c>
-      <c r="D298" t="n">
-        <v>606067.78</v>
-      </c>
-      <c r="E298" t="n">
-        <v>6434089.96</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n"/>
@@ -5564,12 +3772,6 @@
       <c r="C299" t="n">
         <v>2</v>
       </c>
-      <c r="D299" t="n">
-        <v>605837.98</v>
-      </c>
-      <c r="E299" t="n">
-        <v>6434756.65</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n"/>
@@ -5581,12 +3783,6 @@
       <c r="C300" t="n">
         <v>2</v>
       </c>
-      <c r="D300" t="n">
-        <v>606297.86</v>
-      </c>
-      <c r="E300" t="n">
-        <v>6434684.91</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n"/>
@@ -5598,12 +3794,6 @@
       <c r="C301" t="n">
         <v>1</v>
       </c>
-      <c r="D301" t="n">
-        <v>607184.92</v>
-      </c>
-      <c r="E301" t="n">
-        <v>6424487.99</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n"/>
@@ -5615,12 +3805,6 @@
       <c r="C302" t="n">
         <v>1</v>
       </c>
-      <c r="D302" t="n">
-        <v>609643.55</v>
-      </c>
-      <c r="E302" t="n">
-        <v>6424087.76</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n"/>
@@ -5632,12 +3816,6 @@
       <c r="C303" t="n">
         <v>2</v>
       </c>
-      <c r="D303" t="n">
-        <v>610335.52</v>
-      </c>
-      <c r="E303" t="n">
-        <v>6424246.11</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n"/>
@@ -5649,12 +3827,6 @@
       <c r="C304" t="n">
         <v>4</v>
       </c>
-      <c r="D304" t="n">
-        <v>610567.55</v>
-      </c>
-      <c r="E304" t="n">
-        <v>6422751.3</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n"/>
@@ -5666,12 +3838,6 @@
       <c r="C305" t="n">
         <v>2</v>
       </c>
-      <c r="D305" t="n">
-        <v>608932.28</v>
-      </c>
-      <c r="E305" t="n">
-        <v>6423706.99</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n"/>
@@ -5683,12 +3849,6 @@
       <c r="C306" t="n">
         <v>2</v>
       </c>
-      <c r="D306" t="n">
-        <v>610362.71</v>
-      </c>
-      <c r="E306" t="n">
-        <v>6423183.32</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n"/>
@@ -5700,12 +3860,6 @@
       <c r="C307" t="n">
         <v>2</v>
       </c>
-      <c r="D307" t="n">
-        <v>611072.17</v>
-      </c>
-      <c r="E307" t="n">
-        <v>6423199.3</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n"/>
@@ -5717,12 +3871,6 @@
       <c r="C308" t="n">
         <v>3</v>
       </c>
-      <c r="D308" t="n">
-        <v>619200.95</v>
-      </c>
-      <c r="E308" t="n">
-        <v>6427327.29</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n"/>
@@ -5734,12 +3882,6 @@
       <c r="C309" t="n">
         <v>3</v>
       </c>
-      <c r="D309" t="n">
-        <v>620693.41</v>
-      </c>
-      <c r="E309" t="n">
-        <v>6427538.28</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n"/>
@@ -5751,12 +3893,6 @@
       <c r="C310" t="n">
         <v>1</v>
       </c>
-      <c r="D310" t="n">
-        <v>624176.55</v>
-      </c>
-      <c r="E310" t="n">
-        <v>6426418.98</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n"/>
@@ -5768,12 +3904,6 @@
       <c r="C311" t="n">
         <v>2</v>
       </c>
-      <c r="D311" t="n">
-        <v>602379.3100000001</v>
-      </c>
-      <c r="E311" t="n">
-        <v>6435814.64</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n"/>
@@ -5785,12 +3915,6 @@
       <c r="C312" t="n">
         <v>1</v>
       </c>
-      <c r="D312" t="n">
-        <v>603674.14</v>
-      </c>
-      <c r="E312" t="n">
-        <v>6436568.46</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n"/>
@@ -5802,12 +3926,6 @@
       <c r="C313" t="n">
         <v>2</v>
       </c>
-      <c r="D313" t="n">
-        <v>619199.9</v>
-      </c>
-      <c r="E313" t="n">
-        <v>6426069.11</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n"/>
@@ -5819,12 +3937,6 @@
       <c r="C314" t="n">
         <v>5</v>
       </c>
-      <c r="D314" t="n">
-        <v>620558.49</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6426266.31</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n"/>
@@ -5836,12 +3948,6 @@
       <c r="C315" t="n">
         <v>2</v>
       </c>
-      <c r="D315" t="n">
-        <v>588466.27</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6437046.6</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n"/>
@@ -5853,12 +3959,6 @@
       <c r="C316" t="n">
         <v>1</v>
       </c>
-      <c r="D316" t="n">
-        <v>609103.54</v>
-      </c>
-      <c r="E316" t="n">
-        <v>6424862.72</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n"/>
@@ -5870,12 +3970,6 @@
       <c r="C317" t="n">
         <v>1</v>
       </c>
-      <c r="D317" t="n">
-        <v>586199.97</v>
-      </c>
-      <c r="E317" t="n">
-        <v>6440147.78</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n"/>
@@ -5887,12 +3981,6 @@
       <c r="C318" t="n">
         <v>1</v>
       </c>
-      <c r="D318" t="n">
-        <v>621105.33</v>
-      </c>
-      <c r="E318" t="n">
-        <v>6428569.41</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n"/>
@@ -5904,12 +3992,6 @@
       <c r="C319" t="n">
         <v>1</v>
       </c>
-      <c r="D319" t="n">
-        <v>606663.29</v>
-      </c>
-      <c r="E319" t="n">
-        <v>6433172.6</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n"/>
@@ -5921,12 +4003,6 @@
       <c r="C320" t="n">
         <v>1</v>
       </c>
-      <c r="D320" t="n">
-        <v>608305.13</v>
-      </c>
-      <c r="E320" t="n">
-        <v>6432569.88</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n"/>
@@ -5938,12 +4014,6 @@
       <c r="C321" t="n">
         <v>2</v>
       </c>
-      <c r="D321" t="n">
-        <v>598940.41</v>
-      </c>
-      <c r="E321" t="n">
-        <v>6437662.92</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n"/>
@@ -5955,12 +4025,6 @@
       <c r="C322" t="n">
         <v>2</v>
       </c>
-      <c r="D322" t="n">
-        <v>598439.86</v>
-      </c>
-      <c r="E322" t="n">
-        <v>6436205.15</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n"/>
@@ -5972,12 +4036,6 @@
       <c r="C323" t="n">
         <v>2</v>
       </c>
-      <c r="D323" t="n">
-        <v>600491.34</v>
-      </c>
-      <c r="E323" t="n">
-        <v>6436650.4</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n"/>
@@ -5989,12 +4047,6 @@
       <c r="C324" t="n">
         <v>2</v>
       </c>
-      <c r="D324" t="n">
-        <v>603419.8100000001</v>
-      </c>
-      <c r="E324" t="n">
-        <v>6437828.14</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n"/>
@@ -6006,12 +4058,6 @@
       <c r="C325" t="n">
         <v>2</v>
       </c>
-      <c r="D325" t="n">
-        <v>590604.35</v>
-      </c>
-      <c r="E325" t="n">
-        <v>6438283.36</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n"/>
@@ -6023,12 +4069,6 @@
       <c r="C326" t="n">
         <v>1</v>
       </c>
-      <c r="D326" t="n">
-        <v>596451.1</v>
-      </c>
-      <c r="E326" t="n">
-        <v>6439751.56</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n"/>
@@ -6040,12 +4080,6 @@
       <c r="C327" t="n">
         <v>3</v>
       </c>
-      <c r="D327" t="n">
-        <v>597748.38</v>
-      </c>
-      <c r="E327" t="n">
-        <v>6439272.48</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n"/>
@@ -6057,12 +4091,6 @@
       <c r="C328" t="n">
         <v>1</v>
       </c>
-      <c r="D328" t="n">
-        <v>597887.97</v>
-      </c>
-      <c r="E328" t="n">
-        <v>6438637.36</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n"/>
@@ -6074,12 +4102,6 @@
       <c r="C329" t="n">
         <v>1</v>
       </c>
-      <c r="D329" t="n">
-        <v>596417.25</v>
-      </c>
-      <c r="E329" t="n">
-        <v>6440208.25</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n"/>
@@ -6091,12 +4113,6 @@
       <c r="C330" t="n">
         <v>2</v>
       </c>
-      <c r="D330" t="n">
-        <v>597250.88</v>
-      </c>
-      <c r="E330" t="n">
-        <v>6439913.5</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n"/>
@@ -6108,12 +4124,6 @@
       <c r="C331" t="n">
         <v>1</v>
       </c>
-      <c r="D331" t="n">
-        <v>598297.46</v>
-      </c>
-      <c r="E331" t="n">
-        <v>6439471.64</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n"/>
@@ -6125,12 +4135,6 @@
       <c r="C332" t="n">
         <v>2</v>
       </c>
-      <c r="D332" t="n">
-        <v>596945.28</v>
-      </c>
-      <c r="E332" t="n">
-        <v>6441281.68</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n"/>
@@ -6142,12 +4146,6 @@
       <c r="C333" t="n">
         <v>2</v>
       </c>
-      <c r="D333" t="n">
-        <v>588856.88</v>
-      </c>
-      <c r="E333" t="n">
-        <v>6438577.7</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n"/>
@@ -6159,12 +4157,6 @@
       <c r="C334" t="n">
         <v>2</v>
       </c>
-      <c r="D334" t="n">
-        <v>596457.92</v>
-      </c>
-      <c r="E334" t="n">
-        <v>6441729.22</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n"/>
@@ -6176,12 +4168,6 @@
       <c r="C335" t="n">
         <v>4</v>
       </c>
-      <c r="D335" t="n">
-        <v>601668.91</v>
-      </c>
-      <c r="E335" t="n">
-        <v>6439206.22</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n"/>
@@ -6193,12 +4179,6 @@
       <c r="C336" t="n">
         <v>3</v>
       </c>
-      <c r="D336" t="n">
-        <v>600623.63</v>
-      </c>
-      <c r="E336" t="n">
-        <v>6438365.95</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n"/>
@@ -6210,12 +4190,6 @@
       <c r="C337" t="n">
         <v>2</v>
       </c>
-      <c r="D337" t="n">
-        <v>599965.3</v>
-      </c>
-      <c r="E337" t="n">
-        <v>6438965.34</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n"/>
@@ -6227,12 +4201,6 @@
       <c r="C338" t="n">
         <v>1</v>
       </c>
-      <c r="D338" t="n">
-        <v>597907.8100000001</v>
-      </c>
-      <c r="E338" t="n">
-        <v>6440658.85</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n"/>
@@ -6244,12 +4212,6 @@
       <c r="C339" t="n">
         <v>1</v>
       </c>
-      <c r="D339" t="n">
-        <v>599644.74</v>
-      </c>
-      <c r="E339" t="n">
-        <v>6439541.23</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n"/>
@@ -6261,12 +4223,6 @@
       <c r="C340" t="n">
         <v>2</v>
       </c>
-      <c r="D340" t="n">
-        <v>590600.59</v>
-      </c>
-      <c r="E340" t="n">
-        <v>6439665.13</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n"/>
@@ -6278,12 +4234,6 @@
       <c r="C341" t="n">
         <v>2</v>
       </c>
-      <c r="D341" t="n">
-        <v>598813.11</v>
-      </c>
-      <c r="E341" t="n">
-        <v>6440014.38</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n"/>
@@ -6295,12 +4245,6 @@
       <c r="C342" t="n">
         <v>2</v>
       </c>
-      <c r="D342" t="n">
-        <v>599163.71</v>
-      </c>
-      <c r="E342" t="n">
-        <v>6436204.1</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n"/>
@@ -6312,12 +4256,6 @@
       <c r="C343" t="n">
         <v>2</v>
       </c>
-      <c r="D343" t="n">
-        <v>590475.49</v>
-      </c>
-      <c r="E343" t="n">
-        <v>6437515.4</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n"/>
@@ -6329,12 +4267,6 @@
       <c r="C344" t="n">
         <v>2</v>
       </c>
-      <c r="D344" t="n">
-        <v>595462.6</v>
-      </c>
-      <c r="E344" t="n">
-        <v>6441335.19</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n"/>
@@ -6346,12 +4278,6 @@
       <c r="C345" t="n">
         <v>2</v>
       </c>
-      <c r="D345" t="n">
-        <v>594888.97</v>
-      </c>
-      <c r="E345" t="n">
-        <v>6439292.44</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n"/>
@@ -6363,12 +4289,6 @@
       <c r="C346" t="n">
         <v>2</v>
       </c>
-      <c r="D346" t="n">
-        <v>594691.77</v>
-      </c>
-      <c r="E346" t="n">
-        <v>6440629.59</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n"/>
@@ -6380,12 +4300,6 @@
       <c r="C347" t="n">
         <v>2</v>
       </c>
-      <c r="D347" t="n">
-        <v>593724.14</v>
-      </c>
-      <c r="E347" t="n">
-        <v>6440153.44</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n"/>
@@ -6397,12 +4311,6 @@
       <c r="C348" t="n">
         <v>1</v>
       </c>
-      <c r="D348" t="n">
-        <v>595178.4</v>
-      </c>
-      <c r="E348" t="n">
-        <v>6439582.09</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n"/>
@@ -6414,12 +4322,6 @@
       <c r="C349" t="n">
         <v>1</v>
       </c>
-      <c r="D349" t="n">
-        <v>612622.8100000001</v>
-      </c>
-      <c r="E349" t="n">
-        <v>6426831.44</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n"/>
@@ -6431,12 +4333,6 @@
       <c r="C350" t="n">
         <v>3</v>
       </c>
-      <c r="D350" t="n">
-        <v>598377.61</v>
-      </c>
-      <c r="E350" t="n">
-        <v>6426403.53</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n"/>
@@ -6448,12 +4344,6 @@
       <c r="C351" t="n">
         <v>1</v>
       </c>
-      <c r="D351" t="n">
-        <v>597963.34</v>
-      </c>
-      <c r="E351" t="n">
-        <v>6427451.02</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n"/>
@@ -6465,12 +4355,6 @@
       <c r="C352" t="n">
         <v>1</v>
       </c>
-      <c r="D352" t="n">
-        <v>597419.53</v>
-      </c>
-      <c r="E352" t="n">
-        <v>6427834.13</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n"/>
@@ -6482,12 +4366,6 @@
       <c r="C353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" t="n">
-        <v>596147.79</v>
-      </c>
-      <c r="E353" t="n">
-        <v>6427855.67</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n"/>
@@ -6499,12 +4377,6 @@
       <c r="C354" t="n">
         <v>1</v>
       </c>
-      <c r="D354" t="n">
-        <v>596701.77</v>
-      </c>
-      <c r="E354" t="n">
-        <v>6428374.77</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n"/>
@@ -6516,12 +4388,6 @@
       <c r="C355" t="n">
         <v>1</v>
       </c>
-      <c r="D355" t="n">
-        <v>596073.23</v>
-      </c>
-      <c r="E355" t="n">
-        <v>6428197.81</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n"/>
@@ -6533,12 +4399,6 @@
       <c r="C356" t="n">
         <v>1</v>
       </c>
-      <c r="D356" t="n">
-        <v>617892.88</v>
-      </c>
-      <c r="E356" t="n">
-        <v>6423219.18</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n"/>
@@ -6550,12 +4410,6 @@
       <c r="C357" t="n">
         <v>1</v>
       </c>
-      <c r="D357" t="n">
-        <v>617577.9399999999</v>
-      </c>
-      <c r="E357" t="n">
-        <v>6422443.68</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n"/>
@@ -6567,12 +4421,6 @@
       <c r="C358" t="n">
         <v>4</v>
       </c>
-      <c r="D358" t="n">
-        <v>618589.4</v>
-      </c>
-      <c r="E358" t="n">
-        <v>6428823.65</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n"/>
@@ -6584,12 +4432,6 @@
       <c r="C359" t="n">
         <v>2</v>
       </c>
-      <c r="D359" t="n">
-        <v>601453.05</v>
-      </c>
-      <c r="E359" t="n">
-        <v>6434376.15</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n"/>
@@ -6601,12 +4443,6 @@
       <c r="C360" t="n">
         <v>1</v>
       </c>
-      <c r="D360" t="n">
-        <v>599049.9300000001</v>
-      </c>
-      <c r="E360" t="n">
-        <v>6432148.04</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n"/>
@@ -6618,12 +4454,6 @@
       <c r="C361" t="n">
         <v>2</v>
       </c>
-      <c r="D361" t="n">
-        <v>608231.83</v>
-      </c>
-      <c r="E361" t="n">
-        <v>6427090.29</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n"/>
@@ -6635,12 +4465,6 @@
       <c r="C362" t="n">
         <v>1</v>
       </c>
-      <c r="D362" t="n">
-        <v>593366.73</v>
-      </c>
-      <c r="E362" t="n">
-        <v>6438342.8</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n"/>
@@ -6652,12 +4476,6 @@
       <c r="C363" t="n">
         <v>1</v>
       </c>
-      <c r="D363" t="n">
-        <v>612546.59</v>
-      </c>
-      <c r="E363" t="n">
-        <v>6428144.99</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n"/>
@@ -6669,12 +4487,6 @@
       <c r="C364" t="n">
         <v>1</v>
       </c>
-      <c r="D364" t="n">
-        <v>603459.96</v>
-      </c>
-      <c r="E364" t="n">
-        <v>6434019.16</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n"/>
@@ -6686,12 +4498,6 @@
       <c r="C365" t="n">
         <v>2</v>
       </c>
-      <c r="D365" t="n">
-        <v>617875</v>
-      </c>
-      <c r="E365" t="n">
-        <v>6423059.79</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n"/>
@@ -6703,12 +4509,6 @@
       <c r="C366" t="n">
         <v>5</v>
       </c>
-      <c r="D366" t="n">
-        <v>600138.16</v>
-      </c>
-      <c r="E366" t="n">
-        <v>6437305.17</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n"/>
@@ -6720,12 +4520,6 @@
       <c r="C367" t="n">
         <v>1</v>
       </c>
-      <c r="D367" t="n">
-        <v>618671.16</v>
-      </c>
-      <c r="E367" t="n">
-        <v>6423381.07</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n"/>
@@ -6737,12 +4531,6 @@
       <c r="C368" t="n">
         <v>3</v>
       </c>
-      <c r="D368" t="n">
-        <v>596356.3</v>
-      </c>
-      <c r="E368" t="n">
-        <v>6438477.09</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n"/>
@@ -6754,12 +4542,6 @@
       <c r="C369" t="n">
         <v>3</v>
       </c>
-      <c r="D369" t="n">
-        <v>618156.59</v>
-      </c>
-      <c r="E369" t="n">
-        <v>6422707.63</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n"/>
@@ -6771,12 +4553,6 @@
       <c r="C370" t="n">
         <v>2</v>
       </c>
-      <c r="D370" t="n">
-        <v>597479.1800000001</v>
-      </c>
-      <c r="E370" t="n">
-        <v>6436813.28</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n"/>
@@ -6788,12 +4564,6 @@
       <c r="C371" t="n">
         <v>2</v>
       </c>
-      <c r="D371" t="n">
-        <v>595444.05</v>
-      </c>
-      <c r="E371" t="n">
-        <v>6437135.23</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n"/>
@@ -6805,12 +4575,6 @@
       <c r="C372" t="n">
         <v>2</v>
       </c>
-      <c r="D372" t="n">
-        <v>590938.97</v>
-      </c>
-      <c r="E372" t="n">
-        <v>6437858.11</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n"/>
@@ -6822,12 +4586,6 @@
       <c r="C373" t="n">
         <v>2</v>
       </c>
-      <c r="D373" t="n">
-        <v>604595.8</v>
-      </c>
-      <c r="E373" t="n">
-        <v>6435482.04</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n"/>
@@ -6839,12 +4597,6 @@
       <c r="C374" t="n">
         <v>2</v>
       </c>
-      <c r="D374" t="n">
-        <v>604421.9300000001</v>
-      </c>
-      <c r="E374" t="n">
-        <v>6436929.13</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n"/>
@@ -6856,12 +4608,6 @@
       <c r="C375" t="n">
         <v>1</v>
       </c>
-      <c r="D375" t="n">
-        <v>597219.95</v>
-      </c>
-      <c r="E375" t="n">
-        <v>6435712.52</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n"/>
@@ -6873,12 +4619,6 @@
       <c r="C376" t="n">
         <v>1</v>
       </c>
-      <c r="D376" t="n">
-        <v>590755.9399999999</v>
-      </c>
-      <c r="E376" t="n">
-        <v>6439125.22</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n"/>
@@ -6890,12 +4630,6 @@
       <c r="C377" t="n">
         <v>1</v>
       </c>
-      <c r="D377" t="n">
-        <v>592600.8</v>
-      </c>
-      <c r="E377" t="n">
-        <v>6436858.89</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n"/>
@@ -6907,12 +4641,6 @@
       <c r="C378" t="n">
         <v>1</v>
       </c>
-      <c r="D378" t="n">
-        <v>594741.73</v>
-      </c>
-      <c r="E378" t="n">
-        <v>6435926.57</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n"/>
@@ -6924,12 +4652,6 @@
       <c r="C379" t="n">
         <v>1</v>
       </c>
-      <c r="D379" t="n">
-        <v>595474.11</v>
-      </c>
-      <c r="E379" t="n">
-        <v>6435105.5</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n"/>
@@ -6941,12 +4663,6 @@
       <c r="C380" t="n">
         <v>1</v>
       </c>
-      <c r="D380" t="n">
-        <v>596834.58</v>
-      </c>
-      <c r="E380" t="n">
-        <v>6434670.24</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n"/>
@@ -6958,12 +4674,6 @@
       <c r="C381" t="n">
         <v>1</v>
       </c>
-      <c r="D381" t="n">
-        <v>598120.22</v>
-      </c>
-      <c r="E381" t="n">
-        <v>6434253.52</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n"/>
@@ -6975,12 +4685,6 @@
       <c r="C382" t="n">
         <v>1</v>
       </c>
-      <c r="D382" t="n">
-        <v>599785.35</v>
-      </c>
-      <c r="E382" t="n">
-        <v>6433242.21</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n"/>
@@ -6992,12 +4696,6 @@
       <c r="C383" t="n">
         <v>1</v>
       </c>
-      <c r="D383" t="n">
-        <v>595311.47</v>
-      </c>
-      <c r="E383" t="n">
-        <v>6434169.94</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n"/>
@@ -7009,12 +4707,6 @@
       <c r="C384" t="n">
         <v>1</v>
       </c>
-      <c r="D384" t="n">
-        <v>596578.84</v>
-      </c>
-      <c r="E384" t="n">
-        <v>6433771.9</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n"/>
@@ -7026,12 +4718,6 @@
       <c r="C385" t="n">
         <v>1</v>
       </c>
-      <c r="D385" t="n">
-        <v>597345.66</v>
-      </c>
-      <c r="E385" t="n">
-        <v>6433057.15</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n"/>
@@ -7043,12 +4729,6 @@
       <c r="C386" t="n">
         <v>1</v>
       </c>
-      <c r="D386" t="n">
-        <v>593409.36</v>
-      </c>
-      <c r="E386" t="n">
-        <v>6433823.14</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n"/>
@@ -7060,12 +4740,6 @@
       <c r="C387" t="n">
         <v>1</v>
       </c>
-      <c r="D387" t="n">
-        <v>594479.89</v>
-      </c>
-      <c r="E387" t="n">
-        <v>6433268.96</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n"/>
@@ -7077,12 +4751,6 @@
       <c r="C388" t="n">
         <v>2</v>
       </c>
-      <c r="D388" t="n">
-        <v>595792.23</v>
-      </c>
-      <c r="E388" t="n">
-        <v>6432728.54</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n"/>
@@ -7094,12 +4762,6 @@
       <c r="C389" t="n">
         <v>1</v>
       </c>
-      <c r="D389" t="n">
-        <v>596804.86</v>
-      </c>
-      <c r="E389" t="n">
-        <v>6432062.6</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n"/>
@@ -7111,12 +4773,6 @@
       <c r="C390" t="n">
         <v>1</v>
       </c>
-      <c r="D390" t="n">
-        <v>594097.91</v>
-      </c>
-      <c r="E390" t="n">
-        <v>6432060.29</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n"/>
@@ -7128,12 +4784,6 @@
       <c r="C391" t="n">
         <v>1</v>
       </c>
-      <c r="D391" t="n">
-        <v>595184.16</v>
-      </c>
-      <c r="E391" t="n">
-        <v>6431563.66</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n"/>
@@ -7145,12 +4795,6 @@
       <c r="C392" t="n">
         <v>2</v>
       </c>
-      <c r="D392" t="n">
-        <v>597438.58</v>
-      </c>
-      <c r="E392" t="n">
-        <v>6429929.38</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n"/>
@@ -7162,12 +4806,6 @@
       <c r="C393" t="n">
         <v>2</v>
       </c>
-      <c r="D393" t="n">
-        <v>596939.46</v>
-      </c>
-      <c r="E393" t="n">
-        <v>6431129.36</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n"/>
@@ -7179,12 +4817,6 @@
       <c r="C394" t="n">
         <v>2</v>
       </c>
-      <c r="D394" t="n">
-        <v>593498.78</v>
-      </c>
-      <c r="E394" t="n">
-        <v>6430840.83</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n"/>
@@ -7196,12 +4828,6 @@
       <c r="C395" t="n">
         <v>1</v>
       </c>
-      <c r="D395" t="n">
-        <v>594450.59</v>
-      </c>
-      <c r="E395" t="n">
-        <v>6430409.95</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n"/>
@@ -7213,12 +4839,6 @@
       <c r="C396" t="n">
         <v>1</v>
       </c>
-      <c r="D396" t="n">
-        <v>595587.83</v>
-      </c>
-      <c r="E396" t="n">
-        <v>6429973.62</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n"/>
@@ -7230,12 +4850,6 @@
       <c r="C397" t="n">
         <v>2</v>
       </c>
-      <c r="D397" t="n">
-        <v>592845.16</v>
-      </c>
-      <c r="E397" t="n">
-        <v>6429906.62</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n"/>
@@ -7247,12 +4861,6 @@
       <c r="C398" t="n">
         <v>1</v>
       </c>
-      <c r="D398" t="n">
-        <v>593992.3199999999</v>
-      </c>
-      <c r="E398" t="n">
-        <v>6429402.02</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n"/>
@@ -7264,12 +4872,6 @@
       <c r="C399" t="n">
         <v>1</v>
       </c>
-      <c r="D399" t="n">
-        <v>595261.5699999999</v>
-      </c>
-      <c r="E399" t="n">
-        <v>6428418.01</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n"/>
@@ -7281,12 +4883,6 @@
       <c r="C400" t="n">
         <v>1</v>
       </c>
-      <c r="D400" t="n">
-        <v>593144.55</v>
-      </c>
-      <c r="E400" t="n">
-        <v>6428328.4</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n"/>
@@ -7298,12 +4894,6 @@
       <c r="C401" t="n">
         <v>1</v>
       </c>
-      <c r="D401" t="n">
-        <v>592537.73</v>
-      </c>
-      <c r="E401" t="n">
-        <v>6428847.64</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n"/>
@@ -7315,12 +4905,6 @@
       <c r="C402" t="n">
         <v>2</v>
       </c>
-      <c r="D402" t="n">
-        <v>591965.4</v>
-      </c>
-      <c r="E402" t="n">
-        <v>6440082.47</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n"/>
@@ -7332,12 +4916,6 @@
       <c r="C403" t="n">
         <v>1</v>
       </c>
-      <c r="D403" t="n">
-        <v>599797.33</v>
-      </c>
-      <c r="E403" t="n">
-        <v>6430302.49</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n"/>
@@ -7349,12 +4927,6 @@
       <c r="C404" t="n">
         <v>1</v>
       </c>
-      <c r="D404" t="n">
-        <v>587726.95</v>
-      </c>
-      <c r="E404" t="n">
-        <v>6438558.03</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n"/>
@@ -7366,12 +4938,6 @@
       <c r="C405" t="n">
         <v>2</v>
       </c>
-      <c r="D405" t="n">
-        <v>608294.66</v>
-      </c>
-      <c r="E405" t="n">
-        <v>6429466.44</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n"/>
@@ -7383,12 +4949,6 @@
       <c r="C406" t="n">
         <v>3</v>
       </c>
-      <c r="D406" t="n">
-        <v>587003.62</v>
-      </c>
-      <c r="E406" t="n">
-        <v>6434259.82</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n"/>
@@ -7400,12 +4960,6 @@
       <c r="C407" t="n">
         <v>3</v>
       </c>
-      <c r="D407" t="n">
-        <v>608762.04</v>
-      </c>
-      <c r="E407" t="n">
-        <v>6429799.87</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n"/>
@@ -7417,12 +4971,6 @@
       <c r="C408" t="n">
         <v>2</v>
       </c>
-      <c r="D408" t="n">
-        <v>610632.64</v>
-      </c>
-      <c r="E408" t="n">
-        <v>6430286.57</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n"/>
@@ -7434,12 +4982,6 @@
       <c r="C409" t="n">
         <v>1</v>
       </c>
-      <c r="D409" t="n">
-        <v>605481.91</v>
-      </c>
-      <c r="E409" t="n">
-        <v>6431317.16</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n"/>
@@ -7451,12 +4993,6 @@
       <c r="C410" t="n">
         <v>1</v>
       </c>
-      <c r="D410" t="n">
-        <v>604983.49</v>
-      </c>
-      <c r="E410" t="n">
-        <v>6430147.77</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n"/>
@@ -7468,12 +5004,6 @@
       <c r="C411" t="n">
         <v>3</v>
       </c>
-      <c r="D411" t="n">
-        <v>587755.1800000001</v>
-      </c>
-      <c r="E411" t="n">
-        <v>6433552.13</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n"/>
@@ -7485,12 +5015,6 @@
       <c r="C412" t="n">
         <v>1</v>
       </c>
-      <c r="D412" t="n">
-        <v>600936.8</v>
-      </c>
-      <c r="E412" t="n">
-        <v>6428706.34</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n"/>
@@ -7502,12 +5026,6 @@
       <c r="C413" t="n">
         <v>1</v>
       </c>
-      <c r="D413" t="n">
-        <v>601632.28</v>
-      </c>
-      <c r="E413" t="n">
-        <v>6429011.44</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n"/>
@@ -7519,12 +5037,6 @@
       <c r="C414" t="n">
         <v>1</v>
       </c>
-      <c r="D414" t="n">
-        <v>602413.88</v>
-      </c>
-      <c r="E414" t="n">
-        <v>6429628.54</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n"/>
@@ -7536,12 +5048,6 @@
       <c r="C415" t="n">
         <v>1</v>
       </c>
-      <c r="D415" t="n">
-        <v>607774.49</v>
-      </c>
-      <c r="E415" t="n">
-        <v>6429723.95</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n"/>
@@ -7553,12 +5059,6 @@
       <c r="C416" t="n">
         <v>2</v>
       </c>
-      <c r="D416" t="n">
-        <v>609377.66</v>
-      </c>
-      <c r="E416" t="n">
-        <v>6430733.94</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n"/>
@@ -7570,12 +5070,6 @@
       <c r="C417" t="n">
         <v>2</v>
       </c>
-      <c r="D417" t="n">
-        <v>602784.3100000001</v>
-      </c>
-      <c r="E417" t="n">
-        <v>6437131.98</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n"/>
@@ -7587,12 +5081,6 @@
       <c r="C418" t="n">
         <v>1</v>
       </c>
-      <c r="D418" t="n">
-        <v>597683.73</v>
-      </c>
-      <c r="E418" t="n">
-        <v>6433343.89</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n"/>
@@ -7604,12 +5092,6 @@
       <c r="C419" t="n">
         <v>2</v>
       </c>
-      <c r="D419" t="n">
-        <v>601496.78</v>
-      </c>
-      <c r="E419" t="n">
-        <v>6436345.7</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n"/>
@@ -7621,12 +5103,6 @@
       <c r="C420" t="n">
         <v>2</v>
       </c>
-      <c r="D420" t="n">
-        <v>601314.65</v>
-      </c>
-      <c r="E420" t="n">
-        <v>6435543.48</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n"/>
@@ -7638,12 +5114,6 @@
       <c r="C421" t="n">
         <v>1</v>
       </c>
-      <c r="D421" t="n">
-        <v>601360.7</v>
-      </c>
-      <c r="E421" t="n">
-        <v>6437458.1</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n"/>
@@ -7655,12 +5125,6 @@
       <c r="C422" t="n">
         <v>1</v>
       </c>
-      <c r="D422" t="n">
-        <v>604030.0600000001</v>
-      </c>
-      <c r="E422" t="n">
-        <v>6433188.74</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n"/>
@@ -7672,12 +5136,6 @@
       <c r="C423" t="n">
         <v>1</v>
       </c>
-      <c r="D423" t="n">
-        <v>599168.5699999999</v>
-      </c>
-      <c r="E423" t="n">
-        <v>6433798.19</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n"/>
@@ -7689,12 +5147,6 @@
       <c r="C424" t="n">
         <v>1</v>
       </c>
-      <c r="D424" t="n">
-        <v>603046.9300000001</v>
-      </c>
-      <c r="E424" t="n">
-        <v>6432426.78</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n"/>
@@ -7706,12 +5158,6 @@
       <c r="C425" t="n">
         <v>1</v>
       </c>
-      <c r="D425" t="n">
-        <v>599855.24</v>
-      </c>
-      <c r="E425" t="n">
-        <v>6431753.81</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n"/>
@@ -7723,12 +5169,6 @@
       <c r="C426" t="n">
         <v>2</v>
       </c>
-      <c r="D426" t="n">
-        <v>603866.71</v>
-      </c>
-      <c r="E426" t="n">
-        <v>6431385.17</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n"/>
@@ -7740,12 +5180,6 @@
       <c r="C427" t="n">
         <v>2</v>
       </c>
-      <c r="D427" t="n">
-        <v>603120.1</v>
-      </c>
-      <c r="E427" t="n">
-        <v>6431022.54</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n"/>
@@ -7757,12 +5191,6 @@
       <c r="C428" t="n">
         <v>2</v>
       </c>
-      <c r="D428" t="n">
-        <v>602239.14</v>
-      </c>
-      <c r="E428" t="n">
-        <v>6430378.03</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n"/>
@@ -7774,12 +5202,6 @@
       <c r="C429" t="n">
         <v>2</v>
       </c>
-      <c r="D429" t="n">
-        <v>599080.14</v>
-      </c>
-      <c r="E429" t="n">
-        <v>6431222.4</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n"/>
@@ -7791,12 +5213,6 @@
       <c r="C430" t="n">
         <v>1</v>
       </c>
-      <c r="D430" t="n">
-        <v>600971.8</v>
-      </c>
-      <c r="E430" t="n">
-        <v>6429406.01</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n"/>
@@ -7808,12 +5224,6 @@
       <c r="C431" t="n">
         <v>1</v>
       </c>
-      <c r="D431" t="n">
-        <v>598899.3</v>
-      </c>
-      <c r="E431" t="n">
-        <v>6429115.72</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n"/>
@@ -7825,12 +5235,6 @@
       <c r="C432" t="n">
         <v>1</v>
       </c>
-      <c r="D432" t="n">
-        <v>598571.85</v>
-      </c>
-      <c r="E432" t="n">
-        <v>6430488.46</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n"/>
@@ -7842,12 +5246,6 @@
       <c r="C433" t="n">
         <v>1</v>
       </c>
-      <c r="D433" t="n">
-        <v>611156.98</v>
-      </c>
-      <c r="E433" t="n">
-        <v>6428975</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n"/>
@@ -7859,12 +5257,6 @@
       <c r="C434" t="n">
         <v>1</v>
       </c>
-      <c r="D434" t="n">
-        <v>597842.16</v>
-      </c>
-      <c r="E434" t="n">
-        <v>6430719.13</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n"/>
@@ -7876,12 +5268,6 @@
       <c r="C435" t="n">
         <v>1</v>
       </c>
-      <c r="D435" t="n">
-        <v>599945.95</v>
-      </c>
-      <c r="E435" t="n">
-        <v>6433964.83</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n"/>
@@ -7893,12 +5279,6 @@
       <c r="C436" t="n">
         <v>2</v>
       </c>
-      <c r="D436" t="n">
-        <v>626224.02</v>
-      </c>
-      <c r="E436" t="n">
-        <v>6427116.57</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n"/>
@@ -7910,12 +5290,6 @@
       <c r="C437" t="n">
         <v>1</v>
       </c>
-      <c r="D437" t="n">
-        <v>603659.75</v>
-      </c>
-      <c r="E437" t="n">
-        <v>6432173.98</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n"/>
@@ -7927,12 +5301,6 @@
       <c r="C438" t="n">
         <v>2</v>
       </c>
-      <c r="D438" t="n">
-        <v>604728.6800000001</v>
-      </c>
-      <c r="E438" t="n">
-        <v>6434342.43</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n"/>
@@ -7944,12 +5312,6 @@
       <c r="C439" t="n">
         <v>1</v>
       </c>
-      <c r="D439" t="n">
-        <v>608570.72</v>
-      </c>
-      <c r="E439" t="n">
-        <v>6431216.98</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n"/>
@@ -7961,12 +5323,6 @@
       <c r="C440" t="n">
         <v>2</v>
       </c>
-      <c r="D440" t="n">
-        <v>606554.9300000001</v>
-      </c>
-      <c r="E440" t="n">
-        <v>6431480.21</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n"/>
@@ -7978,12 +5334,6 @@
       <c r="C441" t="n">
         <v>1</v>
       </c>
-      <c r="D441" t="n">
-        <v>607873.22</v>
-      </c>
-      <c r="E441" t="n">
-        <v>6432012.68</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n"/>
@@ -7995,12 +5345,6 @@
       <c r="C442" t="n">
         <v>2</v>
       </c>
-      <c r="D442" t="n">
-        <v>606922.52</v>
-      </c>
-      <c r="E442" t="n">
-        <v>6432270.69</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n"/>
@@ -8012,12 +5356,6 @@
       <c r="C443" t="n">
         <v>1</v>
       </c>
-      <c r="D443" t="n">
-        <v>607643.41</v>
-      </c>
-      <c r="E443" t="n">
-        <v>6433433.39</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n"/>
@@ -8029,12 +5367,6 @@
       <c r="C444" t="n">
         <v>1</v>
       </c>
-      <c r="D444" t="n">
-        <v>608564.8100000001</v>
-      </c>
-      <c r="E444" t="n">
-        <v>6431921.23</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n"/>
@@ -8046,12 +5378,6 @@
       <c r="C445" t="n">
         <v>1</v>
       </c>
-      <c r="D445" t="n">
-        <v>607290.83</v>
-      </c>
-      <c r="E445" t="n">
-        <v>6432846.3</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n"/>
@@ -8063,12 +5389,6 @@
       <c r="C446" t="n">
         <v>3</v>
       </c>
-      <c r="D446" t="n">
-        <v>610009.83</v>
-      </c>
-      <c r="E446" t="n">
-        <v>6430457.4</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n"/>
@@ -8080,12 +5400,6 @@
       <c r="C447" t="n">
         <v>1</v>
       </c>
-      <c r="D447" t="n">
-        <v>607331.17</v>
-      </c>
-      <c r="E447" t="n">
-        <v>6430625.73</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n"/>
@@ -8097,12 +5411,6 @@
       <c r="C448" t="n">
         <v>1</v>
       </c>
-      <c r="D448" t="n">
-        <v>607090.92</v>
-      </c>
-      <c r="E448" t="n">
-        <v>6430045.1</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n"/>
@@ -8114,12 +5422,6 @@
       <c r="C449" t="n">
         <v>1</v>
       </c>
-      <c r="D449" t="n">
-        <v>606138.28</v>
-      </c>
-      <c r="E449" t="n">
-        <v>6430669.43</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n"/>
@@ -8131,12 +5433,6 @@
       <c r="C450" t="n">
         <v>1</v>
       </c>
-      <c r="D450" t="n">
-        <v>610388.95</v>
-      </c>
-      <c r="E450" t="n">
-        <v>6429316.33</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n"/>
@@ -8148,12 +5444,6 @@
       <c r="C451" t="n">
         <v>2</v>
       </c>
-      <c r="D451" t="n">
-        <v>609016.34</v>
-      </c>
-      <c r="E451" t="n">
-        <v>6428917.86</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n"/>
@@ -8165,12 +5455,6 @@
       <c r="C452" t="n">
         <v>1</v>
       </c>
-      <c r="D452" t="n">
-        <v>607284.41</v>
-      </c>
-      <c r="E452" t="n">
-        <v>6428889.23</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n"/>
@@ -8182,12 +5466,6 @@
       <c r="C453" t="n">
         <v>2</v>
       </c>
-      <c r="D453" t="n">
-        <v>606374.8199999999</v>
-      </c>
-      <c r="E453" t="n">
-        <v>6428666.16</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n"/>
@@ -8199,12 +5477,6 @@
       <c r="C454" t="n">
         <v>1</v>
       </c>
-      <c r="D454" t="n">
-        <v>608149.25</v>
-      </c>
-      <c r="E454" t="n">
-        <v>6428522.74</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n"/>
@@ -8216,12 +5488,6 @@
       <c r="C455" t="n">
         <v>1</v>
       </c>
-      <c r="D455" t="n">
-        <v>609479.15</v>
-      </c>
-      <c r="E455" t="n">
-        <v>6428199.41</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n"/>
@@ -8233,12 +5499,6 @@
       <c r="C456" t="n">
         <v>2</v>
       </c>
-      <c r="D456" t="n">
-        <v>610527.1</v>
-      </c>
-      <c r="E456" t="n">
-        <v>6428074.69</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n"/>
@@ -8250,12 +5510,6 @@
       <c r="C457" t="n">
         <v>1</v>
       </c>
-      <c r="D457" t="n">
-        <v>611370.66</v>
-      </c>
-      <c r="E457" t="n">
-        <v>6426525.69</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n"/>
@@ -8267,12 +5521,6 @@
       <c r="C458" t="n">
         <v>1</v>
       </c>
-      <c r="D458" t="n">
-        <v>612873.28</v>
-      </c>
-      <c r="E458" t="n">
-        <v>6427456.14</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n"/>
@@ -8284,12 +5532,6 @@
       <c r="C459" t="n">
         <v>1</v>
       </c>
-      <c r="D459" t="n">
-        <v>615690.08</v>
-      </c>
-      <c r="E459" t="n">
-        <v>6426974.93</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n"/>
@@ -8301,12 +5543,6 @@
       <c r="C460" t="n">
         <v>2</v>
       </c>
-      <c r="D460" t="n">
-        <v>606772.01</v>
-      </c>
-      <c r="E460" t="n">
-        <v>6427478.76</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n"/>
@@ -8318,12 +5554,6 @@
       <c r="C461" t="n">
         <v>1</v>
       </c>
-      <c r="D461" t="n">
-        <v>607790.01</v>
-      </c>
-      <c r="E461" t="n">
-        <v>6427813.46</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n"/>
@@ -8335,12 +5565,6 @@
       <c r="C462" t="n">
         <v>1</v>
       </c>
-      <c r="D462" t="n">
-        <v>609366.4</v>
-      </c>
-      <c r="E462" t="n">
-        <v>6427007.09</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n"/>
@@ -8352,12 +5576,6 @@
       <c r="C463" t="n">
         <v>2</v>
       </c>
-      <c r="D463" t="n">
-        <v>608835.3100000001</v>
-      </c>
-      <c r="E463" t="n">
-        <v>6425966.55</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n"/>
@@ -8369,12 +5587,6 @@
       <c r="C464" t="n">
         <v>1</v>
       </c>
-      <c r="D464" t="n">
-        <v>611914.3</v>
-      </c>
-      <c r="E464" t="n">
-        <v>6428573.61</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n"/>
@@ -8386,12 +5598,6 @@
       <c r="C465" t="n">
         <v>1</v>
       </c>
-      <c r="D465" t="n">
-        <v>608004.6899999999</v>
-      </c>
-      <c r="E465" t="n">
-        <v>6430903.91</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n"/>
@@ -8403,12 +5609,6 @@
       <c r="C466" t="n">
         <v>3</v>
       </c>
-      <c r="D466" t="n">
-        <v>613153.21</v>
-      </c>
-      <c r="E466" t="n">
-        <v>6425318.53</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n"/>
@@ -8420,12 +5620,6 @@
       <c r="C467" t="n">
         <v>1</v>
       </c>
-      <c r="D467" t="n">
-        <v>606574.37</v>
-      </c>
-      <c r="E467" t="n">
-        <v>6424866.76</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n"/>
@@ -8437,12 +5631,6 @@
       <c r="C468" t="n">
         <v>2</v>
       </c>
-      <c r="D468" t="n">
-        <v>607159.91</v>
-      </c>
-      <c r="E468" t="n">
-        <v>6423883.55</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n"/>
@@ -8454,12 +5642,6 @@
       <c r="C469" t="n">
         <v>3</v>
       </c>
-      <c r="D469" t="n">
-        <v>611482.47</v>
-      </c>
-      <c r="E469" t="n">
-        <v>6427595.25</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n"/>
@@ -8471,12 +5653,6 @@
       <c r="C470" t="n">
         <v>1</v>
       </c>
-      <c r="D470" t="n">
-        <v>610547.2</v>
-      </c>
-      <c r="E470" t="n">
-        <v>6427318.73</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n"/>
@@ -8488,12 +5664,6 @@
       <c r="C471" t="n">
         <v>1</v>
       </c>
-      <c r="D471" t="n">
-        <v>599499.67</v>
-      </c>
-      <c r="E471" t="n">
-        <v>6428772.82</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n"/>
@@ -8505,12 +5675,6 @@
       <c r="C472" t="n">
         <v>2</v>
       </c>
-      <c r="D472" t="n">
-        <v>612799.73</v>
-      </c>
-      <c r="E472" t="n">
-        <v>6424548.88</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n"/>
@@ -8522,12 +5686,6 @@
       <c r="C473" t="n">
         <v>1</v>
       </c>
-      <c r="D473" t="n">
-        <v>612326.11</v>
-      </c>
-      <c r="E473" t="n">
-        <v>6425586.68</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n"/>
@@ -8539,12 +5697,6 @@
       <c r="C474" t="n">
         <v>1</v>
       </c>
-      <c r="D474" t="n">
-        <v>607630.1</v>
-      </c>
-      <c r="E474" t="n">
-        <v>6425630.7</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n"/>
@@ -8556,12 +5708,6 @@
       <c r="C475" t="n">
         <v>1</v>
       </c>
-      <c r="D475" t="n">
-        <v>607432.97</v>
-      </c>
-      <c r="E475" t="n">
-        <v>6424936.17</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n"/>
@@ -8573,12 +5719,6 @@
       <c r="C476" t="n">
         <v>1</v>
       </c>
-      <c r="D476" t="n">
-        <v>607449.14</v>
-      </c>
-      <c r="E476" t="n">
-        <v>6426238.49</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n"/>
@@ -8590,12 +5730,6 @@
       <c r="C477" t="n">
         <v>1</v>
       </c>
-      <c r="D477" t="n">
-        <v>624556.28</v>
-      </c>
-      <c r="E477" t="n">
-        <v>6425660.01</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n"/>
@@ -8607,12 +5741,6 @@
       <c r="C478" t="n">
         <v>1</v>
       </c>
-      <c r="D478" t="n">
-        <v>612740.72</v>
-      </c>
-      <c r="E478" t="n">
-        <v>6423674.35</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n"/>
@@ -8624,12 +5752,6 @@
       <c r="C479" t="n">
         <v>1</v>
       </c>
-      <c r="D479" t="n">
-        <v>613883.59</v>
-      </c>
-      <c r="E479" t="n">
-        <v>6423984.99</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n"/>
@@ -8641,12 +5763,6 @@
       <c r="C480" t="n">
         <v>4</v>
       </c>
-      <c r="D480" t="n">
-        <v>615419.92</v>
-      </c>
-      <c r="E480" t="n">
-        <v>6423134.97</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n"/>
@@ -8658,12 +5774,6 @@
       <c r="C481" t="n">
         <v>1</v>
       </c>
-      <c r="D481" t="n">
-        <v>617029.48</v>
-      </c>
-      <c r="E481" t="n">
-        <v>6423646.37</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n"/>
@@ -8675,12 +5785,6 @@
       <c r="C482" t="n">
         <v>1</v>
       </c>
-      <c r="D482" t="n">
-        <v>619569.3199999999</v>
-      </c>
-      <c r="E482" t="n">
-        <v>6426837.66</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n"/>
@@ -8692,12 +5796,6 @@
       <c r="C483" t="n">
         <v>2</v>
       </c>
-      <c r="D483" t="n">
-        <v>619647.95</v>
-      </c>
-      <c r="E483" t="n">
-        <v>6424994.79</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n"/>
@@ -8709,12 +5807,6 @@
       <c r="C484" t="n">
         <v>2</v>
       </c>
-      <c r="D484" t="n">
-        <v>624024.99</v>
-      </c>
-      <c r="E484" t="n">
-        <v>6424684.72</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n"/>
@@ -8726,12 +5818,6 @@
       <c r="C485" t="n">
         <v>1</v>
       </c>
-      <c r="D485" t="n">
-        <v>625645.96</v>
-      </c>
-      <c r="E485" t="n">
-        <v>6425742.37</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n"/>
@@ -8743,12 +5829,6 @@
       <c r="C486" t="n">
         <v>1</v>
       </c>
-      <c r="D486" t="n">
-        <v>625246.42</v>
-      </c>
-      <c r="E486" t="n">
-        <v>6426809.86</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n"/>
@@ -8760,12 +5840,6 @@
       <c r="C487" t="n">
         <v>2</v>
       </c>
-      <c r="D487" t="n">
-        <v>598446.59</v>
-      </c>
-      <c r="E487" t="n">
-        <v>6433338.5</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n"/>
@@ -8777,12 +5851,6 @@
       <c r="C488" t="n">
         <v>2</v>
       </c>
-      <c r="D488" t="n">
-        <v>624952.58</v>
-      </c>
-      <c r="E488" t="n">
-        <v>6427859.21</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n"/>
@@ -8794,12 +5862,6 @@
       <c r="C489" t="n">
         <v>1</v>
       </c>
-      <c r="D489" t="n">
-        <v>610074.09</v>
-      </c>
-      <c r="E489" t="n">
-        <v>6423523.86</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n"/>
@@ -8811,12 +5873,6 @@
       <c r="C490" t="n">
         <v>2</v>
       </c>
-      <c r="D490" t="n">
-        <v>625083.87</v>
-      </c>
-      <c r="E490" t="n">
-        <v>6424347.81</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n"/>
@@ -8828,12 +5884,6 @@
       <c r="C491" t="n">
         <v>1</v>
       </c>
-      <c r="D491" t="n">
-        <v>603255.41</v>
-      </c>
-      <c r="E491" t="n">
-        <v>6431965.48</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n"/>
@@ -8845,12 +5895,6 @@
       <c r="C492" t="n">
         <v>1</v>
       </c>
-      <c r="D492" t="n">
-        <v>602136.6800000001</v>
-      </c>
-      <c r="E492" t="n">
-        <v>6434009.5</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n"/>
@@ -8862,12 +5906,6 @@
       <c r="C493" t="n">
         <v>3</v>
       </c>
-      <c r="D493" t="n">
-        <v>590195.23</v>
-      </c>
-      <c r="E493" t="n">
-        <v>6433423.91</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n"/>
@@ -8879,12 +5917,6 @@
       <c r="C494" t="n">
         <v>1</v>
       </c>
-      <c r="D494" t="n">
-        <v>590918.11</v>
-      </c>
-      <c r="E494" t="n">
-        <v>6433046.96</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n"/>
@@ -8896,12 +5928,6 @@
       <c r="C495" t="n">
         <v>1</v>
       </c>
-      <c r="D495" t="n">
-        <v>591814.59</v>
-      </c>
-      <c r="E495" t="n">
-        <v>6432415.84</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n"/>
@@ -8913,12 +5939,6 @@
       <c r="C496" t="n">
         <v>3</v>
       </c>
-      <c r="D496" t="n">
-        <v>589074.47</v>
-      </c>
-      <c r="E496" t="n">
-        <v>6434251.39</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n"/>
@@ -8930,12 +5950,6 @@
       <c r="C497" t="n">
         <v>2</v>
       </c>
-      <c r="D497" t="n">
-        <v>589557.09</v>
-      </c>
-      <c r="E497" t="n">
-        <v>6432172.6</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n"/>
@@ -8947,12 +5961,6 @@
       <c r="C498" t="n">
         <v>2</v>
       </c>
-      <c r="D498" t="n">
-        <v>590484.4300000001</v>
-      </c>
-      <c r="E498" t="n">
-        <v>6431819.61</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n"/>
@@ -8964,12 +5972,6 @@
       <c r="C499" t="n">
         <v>2</v>
       </c>
-      <c r="D499" t="n">
-        <v>591869.85</v>
-      </c>
-      <c r="E499" t="n">
-        <v>6430983.68</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n"/>
@@ -8981,12 +5983,6 @@
       <c r="C500" t="n">
         <v>1</v>
       </c>
-      <c r="D500" t="n">
-        <v>605380.37</v>
-      </c>
-      <c r="E500" t="n">
-        <v>6434107.42</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n"/>
@@ -8998,12 +5994,6 @@
       <c r="C501" t="n">
         <v>1</v>
       </c>
-      <c r="D501" t="n">
-        <v>613021.4</v>
-      </c>
-      <c r="E501" t="n">
-        <v>6423245.29</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n"/>
@@ -9015,12 +6005,6 @@
       <c r="C502" t="n">
         <v>3</v>
       </c>
-      <c r="D502" t="n">
-        <v>587848.28</v>
-      </c>
-      <c r="E502" t="n">
-        <v>6438197.52</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n"/>
@@ -9032,12 +6016,6 @@
       <c r="C503" t="n">
         <v>1</v>
       </c>
-      <c r="D503" t="n">
-        <v>606870.77</v>
-      </c>
-      <c r="E503" t="n">
-        <v>6434392.2</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n"/>
@@ -9049,12 +6027,6 @@
       <c r="C504" t="n">
         <v>3</v>
       </c>
-      <c r="D504" t="n">
-        <v>618945.41</v>
-      </c>
-      <c r="E504" t="n">
-        <v>6424032.42</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n"/>
@@ -9066,12 +6038,6 @@
       <c r="C505" t="n">
         <v>1</v>
       </c>
-      <c r="D505" t="n">
-        <v>616804.54</v>
-      </c>
-      <c r="E505" t="n">
-        <v>6424110.41</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n"/>
@@ -9083,12 +6049,6 @@
       <c r="C506" t="n">
         <v>2</v>
       </c>
-      <c r="D506" t="n">
-        <v>617744.55</v>
-      </c>
-      <c r="E506" t="n">
-        <v>6424904.39</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n"/>
@@ -9100,12 +6060,6 @@
       <c r="C507" t="n">
         <v>2</v>
       </c>
-      <c r="D507" t="n">
-        <v>617127.59</v>
-      </c>
-      <c r="E507" t="n">
-        <v>6423288.75</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n"/>
@@ -9117,12 +6071,6 @@
       <c r="C508" t="n">
         <v>2</v>
       </c>
-      <c r="D508" t="n">
-        <v>617064.87</v>
-      </c>
-      <c r="E508" t="n">
-        <v>6425894.12</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n"/>
@@ -9134,12 +6082,6 @@
       <c r="C509" t="n">
         <v>2</v>
       </c>
-      <c r="D509" t="n">
-        <v>616442.3199999999</v>
-      </c>
-      <c r="E509" t="n">
-        <v>6425536.89</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n"/>
@@ -9151,12 +6093,6 @@
       <c r="C510" t="n">
         <v>1</v>
       </c>
-      <c r="D510" t="n">
-        <v>617253.58</v>
-      </c>
-      <c r="E510" t="n">
-        <v>6426724.12</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n"/>
@@ -9168,12 +6104,6 @@
       <c r="C511" t="n">
         <v>1</v>
       </c>
-      <c r="D511" t="n">
-        <v>621385.65</v>
-      </c>
-      <c r="E511" t="n">
-        <v>6426859.63</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n"/>
@@ -9185,12 +6115,6 @@
       <c r="C512" t="n">
         <v>1</v>
       </c>
-      <c r="D512" t="n">
-        <v>623445.3</v>
-      </c>
-      <c r="E512" t="n">
-        <v>6426205.17</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n"/>
@@ -9202,12 +6126,6 @@
       <c r="C513" t="n">
         <v>3</v>
       </c>
-      <c r="D513" t="n">
-        <v>621809.9300000001</v>
-      </c>
-      <c r="E513" t="n">
-        <v>6425738.98</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n"/>
@@ -9219,12 +6137,6 @@
       <c r="C514" t="n">
         <v>2</v>
       </c>
-      <c r="D514" t="n">
-        <v>609315.89</v>
-      </c>
-      <c r="E514" t="n">
-        <v>6425491.35</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n"/>
@@ -9236,12 +6148,6 @@
       <c r="C515" t="n">
         <v>1</v>
       </c>
-      <c r="D515" t="n">
-        <v>615910.11</v>
-      </c>
-      <c r="E515" t="n">
-        <v>6424565.38</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n"/>
@@ -9253,12 +6159,6 @@
       <c r="C516" t="n">
         <v>1</v>
       </c>
-      <c r="D516" t="n">
-        <v>589179.05</v>
-      </c>
-      <c r="E516" t="n">
-        <v>6433230.09</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n"/>
@@ -9270,12 +6170,6 @@
       <c r="C517" t="n">
         <v>1</v>
       </c>
-      <c r="D517" t="n">
-        <v>590467.71</v>
-      </c>
-      <c r="E517" t="n">
-        <v>6432554.1</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n"/>
@@ -9287,12 +6181,6 @@
       <c r="C518" t="n">
         <v>1</v>
       </c>
-      <c r="D518" t="n">
-        <v>591371.09</v>
-      </c>
-      <c r="E518" t="n">
-        <v>6432040.26</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n"/>
@@ -9304,12 +6192,6 @@
       <c r="C519" t="n">
         <v>2</v>
       </c>
-      <c r="D519" t="n">
-        <v>623743.83</v>
-      </c>
-      <c r="E519" t="n">
-        <v>6424129.82</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n"/>
@@ -9321,12 +6203,6 @@
       <c r="C520" t="n">
         <v>3</v>
       </c>
-      <c r="D520" t="n">
-        <v>586158.86</v>
-      </c>
-      <c r="E520" t="n">
-        <v>6441203.25</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n"/>
@@ -9338,12 +6214,6 @@
       <c r="C521" t="n">
         <v>1</v>
       </c>
-      <c r="D521" t="n">
-        <v>611016</v>
-      </c>
-      <c r="E521" t="n">
-        <v>6427911.22</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n"/>
@@ -9355,12 +6225,6 @@
       <c r="C522" t="n">
         <v>3</v>
       </c>
-      <c r="D522" t="n">
-        <v>586780.03</v>
-      </c>
-      <c r="E522" t="n">
-        <v>6438935.28</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n"/>
@@ -9372,12 +6236,6 @@
       <c r="C523" t="n">
         <v>1</v>
       </c>
-      <c r="D523" t="n">
-        <v>617644.72</v>
-      </c>
-      <c r="E523" t="n">
-        <v>6423812.09</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n"/>
@@ -9389,12 +6247,6 @@
       <c r="C524" t="n">
         <v>2</v>
       </c>
-      <c r="D524" t="n">
-        <v>617773.89</v>
-      </c>
-      <c r="E524" t="n">
-        <v>6426231.23</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n"/>
@@ -9406,12 +6258,6 @@
       <c r="C525" t="n">
         <v>1</v>
       </c>
-      <c r="D525" t="n">
-        <v>618139.3100000001</v>
-      </c>
-      <c r="E525" t="n">
-        <v>6426933.73</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n"/>
@@ -9423,12 +6269,6 @@
       <c r="C526" t="n">
         <v>4</v>
       </c>
-      <c r="D526" t="n">
-        <v>616669.75</v>
-      </c>
-      <c r="E526" t="n">
-        <v>6427552.71</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n"/>
@@ -9440,12 +6280,6 @@
       <c r="C527" t="n">
         <v>1</v>
       </c>
-      <c r="D527" t="n">
-        <v>625935.39</v>
-      </c>
-      <c r="E527" t="n">
-        <v>6424596.21</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n"/>
@@ -9457,12 +6291,6 @@
       <c r="C528" t="n">
         <v>1</v>
       </c>
-      <c r="D528" t="n">
-        <v>623763.53</v>
-      </c>
-      <c r="E528" t="n">
-        <v>6425549.39</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n"/>
@@ -9474,12 +6302,6 @@
       <c r="C529" t="n">
         <v>3</v>
       </c>
-      <c r="D529" t="n">
-        <v>615891.95</v>
-      </c>
-      <c r="E529" t="n">
-        <v>6429611.58</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n"/>
@@ -9491,12 +6313,6 @@
       <c r="C530" t="n">
         <v>1</v>
       </c>
-      <c r="D530" t="n">
-        <v>591957.15</v>
-      </c>
-      <c r="E530" t="n">
-        <v>6429507.2</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n"/>
@@ -9508,12 +6324,6 @@
       <c r="C531" t="n">
         <v>2</v>
       </c>
-      <c r="D531" t="n">
-        <v>590686.46</v>
-      </c>
-      <c r="E531" t="n">
-        <v>6430929.46</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n"/>
@@ -9525,12 +6335,6 @@
       <c r="C532" t="n">
         <v>2</v>
       </c>
-      <c r="D532" t="n">
-        <v>591418.7</v>
-      </c>
-      <c r="E532" t="n">
-        <v>6430200.33</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n"/>
@@ -9542,12 +6346,6 @@
       <c r="C533" t="n">
         <v>1</v>
       </c>
-      <c r="D533" t="n">
-        <v>592310.8199999999</v>
-      </c>
-      <c r="E533" t="n">
-        <v>6431595.78</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n"/>
@@ -9559,12 +6357,6 @@
       <c r="C534" t="n">
         <v>1</v>
       </c>
-      <c r="D534" t="n">
-        <v>592103.16</v>
-      </c>
-      <c r="E534" t="n">
-        <v>6430289.38</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n"/>
@@ -9576,12 +6368,6 @@
       <c r="C535" t="n">
         <v>2</v>
       </c>
-      <c r="D535" t="n">
-        <v>590352.1899999999</v>
-      </c>
-      <c r="E535" t="n">
-        <v>6429957.16</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n"/>
@@ -9593,12 +6379,6 @@
       <c r="C536" t="n">
         <v>2</v>
       </c>
-      <c r="D536" t="n">
-        <v>590612.72</v>
-      </c>
-      <c r="E536" t="n">
-        <v>6429455.71</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n"/>
@@ -9610,12 +6390,6 @@
       <c r="C537" t="n">
         <v>3</v>
       </c>
-      <c r="D537" t="n">
-        <v>626126.9</v>
-      </c>
-      <c r="E537" t="n">
-        <v>6425505.82</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n"/>
@@ -9627,12 +6401,6 @@
       <c r="C538" t="n">
         <v>2</v>
       </c>
-      <c r="D538" t="n">
-        <v>625951.79</v>
-      </c>
-      <c r="E538" t="n">
-        <v>6423617.36</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n"/>
@@ -9644,12 +6412,6 @@
       <c r="C539" t="n">
         <v>1</v>
       </c>
-      <c r="D539" t="n">
-        <v>599434.21</v>
-      </c>
-      <c r="E539" t="n">
-        <v>6434781.18</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n"/>
@@ -9661,12 +6423,6 @@
       <c r="C540" t="n">
         <v>1</v>
       </c>
-      <c r="D540" t="n">
-        <v>622761.55</v>
-      </c>
-      <c r="E540" t="n">
-        <v>6423783.63</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n"/>
@@ -9678,12 +6434,6 @@
       <c r="C541" t="n">
         <v>2</v>
       </c>
-      <c r="D541" t="n">
-        <v>623046.41</v>
-      </c>
-      <c r="E541" t="n">
-        <v>6423207.65</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n"/>
@@ -9695,12 +6445,6 @@
       <c r="C542" t="n">
         <v>3</v>
       </c>
-      <c r="D542" t="n">
-        <v>625532.14</v>
-      </c>
-      <c r="E542" t="n">
-        <v>6422920.3</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n"/>
@@ -9712,12 +6456,6 @@
       <c r="C543" t="n">
         <v>1</v>
       </c>
-      <c r="D543" t="n">
-        <v>624297.77</v>
-      </c>
-      <c r="E543" t="n">
-        <v>6423463.69</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n"/>
@@ -9729,12 +6467,6 @@
       <c r="C544" t="n">
         <v>2</v>
       </c>
-      <c r="D544" t="n">
-        <v>625327.0600000001</v>
-      </c>
-      <c r="E544" t="n">
-        <v>6423599.8</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n"/>
@@ -9746,12 +6478,6 @@
       <c r="C545" t="n">
         <v>1</v>
       </c>
-      <c r="D545" t="n">
-        <v>625242.4300000001</v>
-      </c>
-      <c r="E545" t="n">
-        <v>6424972.94</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n"/>
@@ -9763,12 +6489,6 @@
       <c r="C546" t="n">
         <v>2</v>
       </c>
-      <c r="D546" t="n">
-        <v>625927.75</v>
-      </c>
-      <c r="E546" t="n">
-        <v>6425197.08</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n"/>
@@ -9780,12 +6500,6 @@
       <c r="C547" t="n">
         <v>1</v>
       </c>
-      <c r="D547" t="n">
-        <v>619422.5699999999</v>
-      </c>
-      <c r="E547" t="n">
-        <v>6422970.35</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n"/>
@@ -9797,12 +6511,6 @@
       <c r="C548" t="n">
         <v>1</v>
       </c>
-      <c r="D548" t="n">
-        <v>626165.55</v>
-      </c>
-      <c r="E548" t="n">
-        <v>6427594.98</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n"/>
@@ -9814,12 +6522,6 @@
       <c r="C549" t="n">
         <v>1</v>
       </c>
-      <c r="D549" t="n">
-        <v>590090.66</v>
-      </c>
-      <c r="E549" t="n">
-        <v>6429215.39</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n"/>
@@ -9831,12 +6533,6 @@
       <c r="C550" t="n">
         <v>1</v>
       </c>
-      <c r="D550" t="n">
-        <v>590895.3100000001</v>
-      </c>
-      <c r="E550" t="n">
-        <v>6428860.85</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n"/>
@@ -9848,12 +6544,6 @@
       <c r="C551" t="n">
         <v>3</v>
       </c>
-      <c r="D551" t="n">
-        <v>589820.27</v>
-      </c>
-      <c r="E551" t="n">
-        <v>6428513.45</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n"/>
@@ -9865,12 +6555,6 @@
       <c r="C552" t="n">
         <v>1</v>
       </c>
-      <c r="D552" t="n">
-        <v>590929.73</v>
-      </c>
-      <c r="E552" t="n">
-        <v>6428324.74</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n"/>
@@ -9882,12 +6566,6 @@
       <c r="C553" t="n">
         <v>1</v>
       </c>
-      <c r="D553" t="n">
-        <v>590419.1</v>
-      </c>
-      <c r="E553" t="n">
-        <v>6427489.15</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n"/>
@@ -9899,12 +6577,6 @@
       <c r="C554" t="n">
         <v>2</v>
       </c>
-      <c r="D554" t="n">
-        <v>622642.59</v>
-      </c>
-      <c r="E554" t="n">
-        <v>6425538.71</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n"/>
@@ -9916,12 +6588,6 @@
       <c r="C555" t="n">
         <v>2</v>
       </c>
-      <c r="D555" t="n">
-        <v>591073.47</v>
-      </c>
-      <c r="E555" t="n">
-        <v>6428358.89</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n"/>
@@ -9933,12 +6599,6 @@
       <c r="C556" t="n">
         <v>3</v>
       </c>
-      <c r="D556" t="n">
-        <v>624894.42</v>
-      </c>
-      <c r="E556" t="n">
-        <v>6426155.16</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n"/>
@@ -9950,12 +6610,6 @@
       <c r="C557" t="n">
         <v>2</v>
       </c>
-      <c r="D557" t="n">
-        <v>625910.46</v>
-      </c>
-      <c r="E557" t="n">
-        <v>6426355.04</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n"/>
@@ -9967,12 +6621,6 @@
       <c r="C558" t="n">
         <v>1</v>
       </c>
-      <c r="D558" t="n">
-        <v>614181.5</v>
-      </c>
-      <c r="E558" t="n">
-        <v>6423616.24</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n"/>
@@ -9984,12 +6632,6 @@
       <c r="C559" t="n">
         <v>1</v>
       </c>
-      <c r="D559" t="n">
-        <v>615503.13</v>
-      </c>
-      <c r="E559" t="n">
-        <v>6423900.12</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n"/>
@@ -10001,12 +6643,6 @@
       <c r="C560" t="n">
         <v>2</v>
       </c>
-      <c r="D560" t="n">
-        <v>619007.27</v>
-      </c>
-      <c r="E560" t="n">
-        <v>6425323.73</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n"/>
@@ -10018,12 +6654,6 @@
       <c r="C561" t="n">
         <v>1</v>
       </c>
-      <c r="D561" t="n">
-        <v>619929.55</v>
-      </c>
-      <c r="E561" t="n">
-        <v>6425693.82</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n"/>
@@ -10035,12 +6665,6 @@
       <c r="C562" t="n">
         <v>1</v>
       </c>
-      <c r="D562" t="n">
-        <v>613789.89</v>
-      </c>
-      <c r="E562" t="n">
-        <v>6422246.18</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n"/>
@@ -10052,12 +6676,6 @@
       <c r="C563" t="n">
         <v>4</v>
       </c>
-      <c r="D563" t="n">
-        <v>623197.86</v>
-      </c>
-      <c r="E563" t="n">
-        <v>6426902.99</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n"/>
@@ -10069,12 +6687,6 @@
       <c r="C564" t="n">
         <v>1</v>
       </c>
-      <c r="D564" t="n">
-        <v>624472.15</v>
-      </c>
-      <c r="E564" t="n">
-        <v>6427256.1</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n"/>
@@ -10086,12 +6698,6 @@
       <c r="C565" t="n">
         <v>1</v>
       </c>
-      <c r="D565" t="n">
-        <v>625291.21</v>
-      </c>
-      <c r="E565" t="n">
-        <v>6427452.58</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n"/>
@@ -10103,12 +6709,6 @@
       <c r="C566" t="n">
         <v>2</v>
       </c>
-      <c r="D566" t="n">
-        <v>613802.8100000001</v>
-      </c>
-      <c r="E566" t="n">
-        <v>6424862.25</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n"/>
@@ -10120,12 +6720,6 @@
       <c r="C567" t="n">
         <v>1</v>
       </c>
-      <c r="D567" t="n">
-        <v>617856.5</v>
-      </c>
-      <c r="E567" t="n">
-        <v>6425559.84</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n"/>
@@ -10137,12 +6731,6 @@
       <c r="C568" t="n">
         <v>2</v>
       </c>
-      <c r="D568" t="n">
-        <v>620409.51</v>
-      </c>
-      <c r="E568" t="n">
-        <v>6424948.5</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n"/>
@@ -10154,12 +6742,6 @@
       <c r="C569" t="n">
         <v>2</v>
       </c>
-      <c r="D569" t="n">
-        <v>618956.6800000001</v>
-      </c>
-      <c r="E569" t="n">
-        <v>6426590.5</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n"/>
@@ -10171,12 +6753,6 @@
       <c r="C570" t="n">
         <v>2</v>
       </c>
-      <c r="D570" t="n">
-        <v>621478.03</v>
-      </c>
-      <c r="E570" t="n">
-        <v>6427275.53</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n"/>
@@ -10188,12 +6764,6 @@
       <c r="C571" t="n">
         <v>1</v>
       </c>
-      <c r="D571" t="n">
-        <v>623403.95</v>
-      </c>
-      <c r="E571" t="n">
-        <v>6428262.37</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n"/>
@@ -10205,12 +6775,6 @@
       <c r="C572" t="n">
         <v>2</v>
       </c>
-      <c r="D572" t="n">
-        <v>624589.79</v>
-      </c>
-      <c r="E572" t="n">
-        <v>6428456.61</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n"/>
@@ -10222,12 +6786,6 @@
       <c r="C573" t="n">
         <v>1</v>
       </c>
-      <c r="D573" t="n">
-        <v>624895.21</v>
-      </c>
-      <c r="E573" t="n">
-        <v>6428706.75</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n"/>
@@ -10239,12 +6797,6 @@
       <c r="C574" t="n">
         <v>1</v>
       </c>
-      <c r="D574" t="n">
-        <v>613417.61</v>
-      </c>
-      <c r="E574" t="n">
-        <v>6425896.11</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n"/>
@@ -10256,12 +6808,6 @@
       <c r="C575" t="n">
         <v>1</v>
       </c>
-      <c r="D575" t="n">
-        <v>614576.54</v>
-      </c>
-      <c r="E575" t="n">
-        <v>6426382.82</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n"/>
@@ -10273,12 +6819,6 @@
       <c r="C576" t="n">
         <v>1</v>
       </c>
-      <c r="D576" t="n">
-        <v>616821.33</v>
-      </c>
-      <c r="E576" t="n">
-        <v>6426299.7</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n"/>
@@ -10290,12 +6830,6 @@
       <c r="C577" t="n">
         <v>2</v>
       </c>
-      <c r="D577" t="n">
-        <v>619496.4399999999</v>
-      </c>
-      <c r="E577" t="n">
-        <v>6428000.88</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n"/>
@@ -10307,12 +6841,6 @@
       <c r="C578" t="n">
         <v>3</v>
       </c>
-      <c r="D578" t="n">
-        <v>619946.21</v>
-      </c>
-      <c r="E578" t="n">
-        <v>6428216.35</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n"/>
@@ -10324,12 +6852,6 @@
       <c r="C579" t="n">
         <v>1</v>
       </c>
-      <c r="D579" t="n">
-        <v>613808.0699999999</v>
-      </c>
-      <c r="E579" t="n">
-        <v>6426352.91</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n"/>
@@ -10341,12 +6863,6 @@
       <c r="C580" t="n">
         <v>1</v>
       </c>
-      <c r="D580" t="n">
-        <v>617872.4399999999</v>
-      </c>
-      <c r="E580" t="n">
-        <v>6429274.16</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n"/>
@@ -10358,12 +6874,6 @@
       <c r="C581" t="n">
         <v>2</v>
       </c>
-      <c r="D581" t="n">
-        <v>592595.09</v>
-      </c>
-      <c r="E581" t="n">
-        <v>6430812.6</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n"/>
@@ -10375,12 +6885,6 @@
       <c r="C582" t="n">
         <v>5</v>
       </c>
-      <c r="D582" t="n">
-        <v>601861.5</v>
-      </c>
-      <c r="E582" t="n">
-        <v>6457142.46</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n"/>
@@ -10392,12 +6896,6 @@
       <c r="C583" t="n">
         <v>2</v>
       </c>
-      <c r="D583" t="n">
-        <v>603073.45</v>
-      </c>
-      <c r="E583" t="n">
-        <v>6452239.78</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n"/>
@@ -10409,12 +6907,6 @@
       <c r="C584" t="n">
         <v>2</v>
       </c>
-      <c r="D584" t="n">
-        <v>600203.8199999999</v>
-      </c>
-      <c r="E584" t="n">
-        <v>6448163.47</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n"/>
@@ -10426,12 +6918,6 @@
       <c r="C585" t="n">
         <v>2</v>
       </c>
-      <c r="D585" t="n">
-        <v>602858.98</v>
-      </c>
-      <c r="E585" t="n">
-        <v>6449672.41</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n"/>
@@ -10443,12 +6929,6 @@
       <c r="C586" t="n">
         <v>1</v>
       </c>
-      <c r="D586" t="n">
-        <v>596178.09</v>
-      </c>
-      <c r="E586" t="n">
-        <v>6442707.86</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n"/>
@@ -10460,12 +6940,6 @@
       <c r="C587" t="n">
         <v>1</v>
       </c>
-      <c r="D587" t="n">
-        <v>595412.6800000001</v>
-      </c>
-      <c r="E587" t="n">
-        <v>6440252.37</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n"/>
@@ -10477,12 +6951,6 @@
       <c r="C588" t="n">
         <v>2</v>
       </c>
-      <c r="D588" t="n">
-        <v>596674.99</v>
-      </c>
-      <c r="E588" t="n">
-        <v>6440873.62</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n"/>
@@ -10494,12 +6962,6 @@
       <c r="C589" t="n">
         <v>2</v>
       </c>
-      <c r="D589" t="n">
-        <v>596890.01</v>
-      </c>
-      <c r="E589" t="n">
-        <v>6454049.61</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n"/>
@@ -10511,12 +6973,6 @@
       <c r="C590" t="n">
         <v>2</v>
       </c>
-      <c r="D590" t="n">
-        <v>598774.1899999999</v>
-      </c>
-      <c r="E590" t="n">
-        <v>6452395.09</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n"/>
@@ -10528,12 +6984,6 @@
       <c r="C591" t="n">
         <v>2</v>
       </c>
-      <c r="D591" t="n">
-        <v>592903.9</v>
-      </c>
-      <c r="E591" t="n">
-        <v>6455039.55</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n"/>
@@ -10545,12 +6995,6 @@
       <c r="C592" t="n">
         <v>2</v>
       </c>
-      <c r="D592" t="n">
-        <v>600693.7</v>
-      </c>
-      <c r="E592" t="n">
-        <v>6445973.1</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n"/>
@@ -10562,12 +7006,6 @@
       <c r="C593" t="n">
         <v>3</v>
       </c>
-      <c r="D593" t="n">
-        <v>592803.41</v>
-      </c>
-      <c r="E593" t="n">
-        <v>6448487.08</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n"/>
@@ -10579,12 +7017,6 @@
       <c r="C594" t="n">
         <v>4</v>
       </c>
-      <c r="D594" t="n">
-        <v>591265.41</v>
-      </c>
-      <c r="E594" t="n">
-        <v>6451591.1</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n"/>
@@ -10596,12 +7028,6 @@
       <c r="C595" t="n">
         <v>5</v>
       </c>
-      <c r="D595" t="n">
-        <v>588370.11</v>
-      </c>
-      <c r="E595" t="n">
-        <v>6442735.02</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n"/>
@@ -10613,12 +7039,6 @@
       <c r="C596" t="n">
         <v>2</v>
       </c>
-      <c r="D596" t="n">
-        <v>599451.1800000001</v>
-      </c>
-      <c r="E596" t="n">
-        <v>6444152.57</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n"/>
@@ -10630,12 +7050,6 @@
       <c r="C597" t="n">
         <v>3</v>
       </c>
-      <c r="D597" t="n">
-        <v>590565.37</v>
-      </c>
-      <c r="E597" t="n">
-        <v>6447081.21</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n"/>
@@ -10647,12 +7061,6 @@
       <c r="C598" t="n">
         <v>2</v>
       </c>
-      <c r="D598" t="n">
-        <v>588845.5600000001</v>
-      </c>
-      <c r="E598" t="n">
-        <v>6448498.52</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n"/>
@@ -10664,12 +7072,6 @@
       <c r="C599" t="n">
         <v>2</v>
       </c>
-      <c r="D599" t="n">
-        <v>585669.53</v>
-      </c>
-      <c r="E599" t="n">
-        <v>6444252.76</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n"/>
@@ -10681,12 +7083,6 @@
       <c r="C600" t="n">
         <v>3</v>
       </c>
-      <c r="D600" t="n">
-        <v>593260.8100000001</v>
-      </c>
-      <c r="E600" t="n">
-        <v>6441554.63</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n"/>
@@ -10698,12 +7094,6 @@
       <c r="C601" t="n">
         <v>1</v>
       </c>
-      <c r="D601" t="n">
-        <v>601200.55</v>
-      </c>
-      <c r="E601" t="n">
-        <v>6453625.37</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n"/>
@@ -10715,12 +7105,6 @@
       <c r="C602" t="n">
         <v>5</v>
       </c>
-      <c r="D602" t="n">
-        <v>595023.37</v>
-      </c>
-      <c r="E602" t="n">
-        <v>6455238.2</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n"/>
@@ -10732,12 +7116,6 @@
       <c r="C603" t="n">
         <v>2</v>
       </c>
-      <c r="D603" t="n">
-        <v>596787.3</v>
-      </c>
-      <c r="E603" t="n">
-        <v>6457523.97</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n"/>
@@ -10749,12 +7127,6 @@
       <c r="C604" t="n">
         <v>3</v>
       </c>
-      <c r="D604" t="n">
-        <v>589605.09</v>
-      </c>
-      <c r="E604" t="n">
-        <v>6454441.9</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n"/>
@@ -10766,12 +7138,6 @@
       <c r="C605" t="n">
         <v>2</v>
       </c>
-      <c r="D605" t="n">
-        <v>595188.65</v>
-      </c>
-      <c r="E605" t="n">
-        <v>6452378.68</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n"/>
@@ -10783,12 +7149,6 @@
       <c r="C606" t="n">
         <v>2</v>
       </c>
-      <c r="D606" t="n">
-        <v>587383.9300000001</v>
-      </c>
-      <c r="E606" t="n">
-        <v>6454068.74</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n"/>
@@ -10800,12 +7160,6 @@
       <c r="C607" t="n">
         <v>2</v>
       </c>
-      <c r="D607" t="n">
-        <v>597761.58</v>
-      </c>
-      <c r="E607" t="n">
-        <v>6458879.73</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n"/>
@@ -10817,12 +7171,6 @@
       <c r="C608" t="n">
         <v>2</v>
       </c>
-      <c r="D608" t="n">
-        <v>599155.37</v>
-      </c>
-      <c r="E608" t="n">
-        <v>6455578.57</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n"/>
@@ -10834,12 +7182,6 @@
       <c r="C609" t="n">
         <v>5</v>
       </c>
-      <c r="D609" t="n">
-        <v>604003.37</v>
-      </c>
-      <c r="E609" t="n">
-        <v>6453922.75</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n"/>
@@ -10851,12 +7193,6 @@
       <c r="C610" t="n">
         <v>2</v>
       </c>
-      <c r="D610" t="n">
-        <v>589416.47</v>
-      </c>
-      <c r="E610" t="n">
-        <v>6450555.86</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n"/>
@@ -10868,12 +7204,6 @@
       <c r="C611" t="n">
         <v>2</v>
       </c>
-      <c r="D611" t="n">
-        <v>598255.17</v>
-      </c>
-      <c r="E611" t="n">
-        <v>6448428.5</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n"/>
@@ -10885,12 +7215,6 @@
       <c r="C612" t="n">
         <v>2</v>
       </c>
-      <c r="D612" t="n">
-        <v>592724.1899999999</v>
-      </c>
-      <c r="E612" t="n">
-        <v>6446184.48</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n"/>
@@ -10902,12 +7226,6 @@
       <c r="C613" t="n">
         <v>2</v>
       </c>
-      <c r="D613" t="n">
-        <v>589146.2</v>
-      </c>
-      <c r="E613" t="n">
-        <v>6444848.1</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n"/>
@@ -10919,12 +7237,6 @@
       <c r="C614" t="n">
         <v>2</v>
       </c>
-      <c r="D614" t="n">
-        <v>595808.5600000001</v>
-      </c>
-      <c r="E614" t="n">
-        <v>6449046.72</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n"/>
@@ -10936,12 +7248,6 @@
       <c r="C615" t="n">
         <v>2</v>
       </c>
-      <c r="D615" t="n">
-        <v>600506.71</v>
-      </c>
-      <c r="E615" t="n">
-        <v>6456788.93</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n"/>
@@ -10953,12 +7259,6 @@
       <c r="C616" t="n">
         <v>2</v>
       </c>
-      <c r="D616" t="n">
-        <v>600720.33</v>
-      </c>
-      <c r="E616" t="n">
-        <v>6443399.22</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n"/>
@@ -10970,12 +7270,6 @@
       <c r="C617" t="n">
         <v>2</v>
       </c>
-      <c r="D617" t="n">
-        <v>598845.13</v>
-      </c>
-      <c r="E617" t="n">
-        <v>6442400.59</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n"/>
@@ -10987,12 +7281,6 @@
       <c r="C618" t="n">
         <v>2</v>
       </c>
-      <c r="D618" t="n">
-        <v>601465.8</v>
-      </c>
-      <c r="E618" t="n">
-        <v>6441860.89</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n"/>
@@ -11004,12 +7292,6 @@
       <c r="C619" t="n">
         <v>2</v>
       </c>
-      <c r="D619" t="n">
-        <v>600385.91</v>
-      </c>
-      <c r="E619" t="n">
-        <v>6441294.02</v>
-      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n"/>
@@ -11021,12 +7303,6 @@
       <c r="C620" t="n">
         <v>4</v>
       </c>
-      <c r="D620" t="n">
-        <v>585402.12741756</v>
-      </c>
-      <c r="E620" t="n">
-        <v>6445836.8759417</v>
-      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n"/>
@@ -11038,12 +7314,6 @@
       <c r="C621" t="n">
         <v>1</v>
       </c>
-      <c r="D621" t="n">
-        <v>599363.65</v>
-      </c>
-      <c r="E621" t="n">
-        <v>6453577.22</v>
-      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n"/>
@@ -11055,12 +7325,6 @@
       <c r="C622" t="n">
         <v>1</v>
       </c>
-      <c r="D622" t="n">
-        <v>586532.41</v>
-      </c>
-      <c r="E622" t="n">
-        <v>6453220.21</v>
-      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n"/>
@@ -11072,12 +7336,6 @@
       <c r="C623" t="n">
         <v>2</v>
       </c>
-      <c r="D623" t="n">
-        <v>587704.0600000001</v>
-      </c>
-      <c r="E623" t="n">
-        <v>6437447.08</v>
-      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n"/>
@@ -11089,12 +7347,6 @@
       <c r="C624" t="n">
         <v>2</v>
       </c>
-      <c r="D624" t="n">
-        <v>611050.16</v>
-      </c>
-      <c r="E624" t="n">
-        <v>6424059.51</v>
-      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n"/>
@@ -11106,12 +7358,6 @@
       <c r="C625" t="n">
         <v>2</v>
       </c>
-      <c r="D625" t="n">
-        <v>609168.5</v>
-      </c>
-      <c r="E625" t="n">
-        <v>6424448.01</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n"/>
@@ -11123,12 +7369,6 @@
       <c r="C626" t="n">
         <v>2</v>
       </c>
-      <c r="D626" t="n">
-        <v>609954.2</v>
-      </c>
-      <c r="E626" t="n">
-        <v>6424864.3</v>
-      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n"/>
@@ -11140,12 +7380,6 @@
       <c r="C627" t="n">
         <v>2</v>
       </c>
-      <c r="D627" t="n">
-        <v>611218.3100000001</v>
-      </c>
-      <c r="E627" t="n">
-        <v>6425077.25</v>
-      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n"/>
@@ -11157,12 +7391,6 @@
       <c r="C628" t="n">
         <v>1</v>
       </c>
-      <c r="D628" t="n">
-        <v>613328.35</v>
-      </c>
-      <c r="E628" t="n">
-        <v>6426808.76</v>
-      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n"/>
@@ -11174,12 +7402,6 @@
       <c r="C629" t="n">
         <v>2</v>
       </c>
-      <c r="D629" t="n">
-        <v>614213.09</v>
-      </c>
-      <c r="E629" t="n">
-        <v>6428282.92</v>
-      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n"/>
@@ -11191,12 +7413,6 @@
       <c r="C630" t="n">
         <v>1</v>
       </c>
-      <c r="D630" t="n">
-        <v>611581.67</v>
-      </c>
-      <c r="E630" t="n">
-        <v>6425828.34</v>
-      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n"/>
@@ -11208,12 +7424,6 @@
       <c r="C631" t="n">
         <v>1</v>
       </c>
-      <c r="D631" t="n">
-        <v>612638.96</v>
-      </c>
-      <c r="E631" t="n">
-        <v>6426339.54</v>
-      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n"/>
@@ -11225,12 +7435,6 @@
       <c r="C632" t="n">
         <v>3</v>
       </c>
-      <c r="D632" t="n">
-        <v>613322.97</v>
-      </c>
-      <c r="E632" t="n">
-        <v>6429428.62</v>
-      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n"/>
@@ -11242,12 +7446,6 @@
       <c r="C633" t="n">
         <v>2</v>
       </c>
-      <c r="D633" t="n">
-        <v>613190.77</v>
-      </c>
-      <c r="E633" t="n">
-        <v>6430087.65</v>
-      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n"/>
@@ -11259,12 +7457,6 @@
       <c r="C634" t="n">
         <v>3</v>
       </c>
-      <c r="D634" t="n">
-        <v>587285.78</v>
-      </c>
-      <c r="E634" t="n">
-        <v>6445760.94</v>
-      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n"/>
@@ -11276,12 +7468,6 @@
       <c r="C635" t="n">
         <v>3</v>
       </c>
-      <c r="D635" t="n">
-        <v>587334.4399999999</v>
-      </c>
-      <c r="E635" t="n">
-        <v>6444591.22</v>
-      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n"/>
@@ -11293,12 +7479,6 @@
       <c r="C636" t="n">
         <v>2</v>
       </c>
-      <c r="D636" t="n">
-        <v>589142.02</v>
-      </c>
-      <c r="E636" t="n">
-        <v>6442026.34</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n"/>
@@ -11310,12 +7490,6 @@
       <c r="C637" t="n">
         <v>3</v>
       </c>
-      <c r="D637" t="n">
-        <v>589476.02</v>
-      </c>
-      <c r="E637" t="n">
-        <v>6440762.79</v>
-      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n"/>
@@ -11327,12 +7501,6 @@
       <c r="C638" t="n">
         <v>2</v>
       </c>
-      <c r="D638" t="n">
-        <v>591637.14</v>
-      </c>
-      <c r="E638" t="n">
-        <v>6427946.96</v>
-      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n"/>
@@ -11344,12 +7512,6 @@
       <c r="C639" t="n">
         <v>1</v>
       </c>
-      <c r="D639" t="n">
-        <v>591490.91</v>
-      </c>
-      <c r="E639" t="n">
-        <v>6429118</v>
-      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n"/>
@@ -11361,12 +7523,6 @@
       <c r="C640" t="n">
         <v>2</v>
       </c>
-      <c r="D640" t="n">
-        <v>598266.39</v>
-      </c>
-      <c r="E640" t="n">
-        <v>6438055.41</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n"/>
@@ -11378,12 +7534,6 @@
       <c r="C641" t="n">
         <v>1</v>
       </c>
-      <c r="D641" t="n">
-        <v>592430.08</v>
-      </c>
-      <c r="E641" t="n">
-        <v>6427590.42</v>
-      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
@@ -11398,12 +7548,6 @@
       </c>
       <c r="C642" t="n">
         <v>7</v>
-      </c>
-      <c r="D642" t="n">
-        <v>598301.1899999999</v>
-      </c>
-      <c r="E642" t="n">
-        <v>6462376.9</v>
       </c>
     </row>
     <row r="643">
@@ -11416,12 +7560,6 @@
       <c r="C643" t="n">
         <v>2</v>
       </c>
-      <c r="D643" t="n">
-        <v>600243.5600000001</v>
-      </c>
-      <c r="E643" t="n">
-        <v>6462583.82</v>
-      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
@@ -11436,12 +7574,6 @@
       </c>
       <c r="C644" t="n">
         <v>1</v>
-      </c>
-      <c r="D644" t="n">
-        <v>630524.91</v>
-      </c>
-      <c r="E644" t="n">
-        <v>6441918.69</v>
       </c>
     </row>
   </sheetData>
